--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code Repositories\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -462,14 +462,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,47 +477,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -534,15 +534,17 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -568,7 +570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -579,7 +581,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E2">
         <v>7.5999999999999998E-2</v>
@@ -594,33 +596,33 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="E3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="F3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="G3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>4.3499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -646,7 +648,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -672,7 +674,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -698,7 +700,7 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -709,7 +711,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
       <c r="D7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E7">
         <v>5.8700000000000002E-2</v>
@@ -736,15 +738,17 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -770,59 +774,59 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="D3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="E3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="F3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="G3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="H3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -848,7 +852,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -874,7 +878,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -900,7 +904,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\eps-eu\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5E4684-B238-44E3-AEE2-DB5004580C3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050"/>
+    <workbookView xWindow="5595" yWindow="-15270" windowWidth="18945" windowHeight="11745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,6 +248,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -282,6 +300,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,10 +492,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -528,7 +563,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="C2">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="D2">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="E2">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F2">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="G2">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="H2">
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H3">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -575,210 +814,6 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="C2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D2">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="F2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="G2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="H2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="C3">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="D3">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="E3">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="F3">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="G3">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="H3">
-        <v>4.2700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="C4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="E4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="F4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="G4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="H4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="C6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="F6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="G6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="H6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="C7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="D7">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="F7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="G7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="H7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="8" width="14.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="C2">

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,28 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\eps-eu\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5E4684-B238-44E3-AEE2-DB5004580C3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8168A-4C5B-41DF-BCCA-E68F8CD694C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="-15270" windowWidth="18945" windowHeight="11745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
-    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
+    <sheet name="AVL" sheetId="5" r:id="rId2"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId3"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -100,6 +115,15 @@
   </si>
   <si>
     <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>Vehicle Lifetime (years)</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Freight</t>
   </si>
 </sst>
 </file>
@@ -143,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -155,6 +179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +198,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Ships"/>
+      <sheetName val="Data"/>
+      <sheetName val="AVL"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="5">
+          <cell r="C5">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>28</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,16 +588,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -512,47 +605,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -563,23 +656,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A92FDBB-7F6A-4C7C-9A91-BA9C0E195986}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6">
+        <f>[1]Data!C5</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <f>[1]Data!C7</f>
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <f>[1]Data!C62</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
+        <f>[1]Data!B22</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <f>[1]Data!B21</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6">
+        <f>[1]Data!B44</f>
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <f>B5</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f>[1]Data!B52</f>
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <f>[1]Data!B51</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <f>[1]Data!C57</f>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <f>B7</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="8" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="8" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -605,160 +801,160 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.4099999999999994E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C2">
-        <v>8.4099999999999994E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D2">
-        <v>8.4099999999999994E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E2">
-        <v>8.4099999999999994E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F2">
-        <v>8.4099999999999994E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G2">
-        <v>8.4099999999999994E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H2">
-        <v>8.4099999999999994E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>7.8E-2</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="C3">
-        <v>7.8E-2</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="D3">
-        <v>7.8E-2</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="E3">
-        <v>7.8E-2</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="F3">
-        <v>7.8E-2</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="G3">
-        <v>7.8E-2</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="H3">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9.0909090999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F4">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.0999999999999997E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="C5">
-        <v>5.0999999999999997E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="D5">
-        <v>5.0999999999999997E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="E5">
-        <v>5.0999999999999997E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="F5">
-        <v>5.0999999999999997E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="G5">
-        <v>5.0999999999999997E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="H5">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5.5555555999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4.2999999999999997E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="C6">
-        <v>4.2999999999999997E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="D6">
-        <v>4.2999999999999997E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="E6">
-        <v>4.2999999999999997E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="F6">
-        <v>4.2999999999999997E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="G6">
-        <v>4.2999999999999997E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="H6">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3.8461538000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -777,13 +973,13 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="8" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="8" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -809,160 +1005,160 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="C3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="D3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="E3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="F3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="G3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="H3">
-        <v>3.5499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3.5714285999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.2000000000000003E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="C4">
-        <v>4.2000000000000003E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="D4">
-        <v>4.2000000000000003E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="E4">
-        <v>4.2000000000000003E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="F4">
-        <v>4.2000000000000003E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="G4">
-        <v>4.2000000000000003E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="H4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4.7619047999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="C5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="D5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="E5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="F5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="G5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="H5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5.5555555999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="C6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="D6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="E6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="F6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="G6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="H6">
-        <v>3.0300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4.5454544999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8168A-4C5B-41DF-BCCA-E68F8CD694C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC30D8DD-9E3D-47D4-B288-7FFFA9B36699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="AVL" sheetId="5" r:id="rId2"/>
-    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId3"/>
-    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId4"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -115,15 +111,6 @@
   </si>
   <si>
     <t>hydrogen vehicle</t>
-  </si>
-  <si>
-    <t>Vehicle Lifetime (years)</t>
-  </si>
-  <si>
-    <t>Passenger</t>
-  </si>
-  <si>
-    <t>Freight</t>
   </si>
 </sst>
 </file>
@@ -167,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -179,10 +166,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,75 +183,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Ships"/>
-      <sheetName val="Data"/>
-      <sheetName val="AVL"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="5">
-          <cell r="C5">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>28</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,9 +224,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,26 +259,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,26 +294,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -588,16 +472,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,47 +491,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -656,101 +542,209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A92FDBB-7F6A-4C7C-9A91-BA9C0E195986}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6">
-        <v>25</v>
-      </c>
-      <c r="C2" s="6">
-        <f>[1]Data!C5</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:H2" si="0">1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6">
-        <f>[1]Data!C7</f>
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
-        <f>[1]Data!C62</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0.09</v>
+      </c>
+      <c r="C3">
+        <v>0.09</v>
+      </c>
+      <c r="D3">
+        <v>0.09</v>
+      </c>
+      <c r="E3">
+        <v>0.09</v>
+      </c>
+      <c r="F3">
+        <v>0.09</v>
+      </c>
+      <c r="G3">
+        <v>0.09</v>
+      </c>
+      <c r="H3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6">
-        <f>[1]Data!B22</f>
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <f>[1]Data!B21</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
-        <f>[1]Data!B44</f>
-        <v>18</v>
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C5">
-        <f>B5</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <f>[1]Data!B52</f>
-        <v>26</v>
+        <v>2.9819999999999999E-2</v>
       </c>
       <c r="C6">
-        <f>[1]Data!B51</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <f>[1]Data!C57</f>
-        <v>9</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="C7">
-        <f>B7</f>
-        <v>9</v>
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.8700000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -759,210 +753,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="8" width="14.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="C2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="D2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="G2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="C3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="D3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="E3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="F3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="G3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="H3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>0.1</v>
-      </c>
-      <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="C5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="E5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="F5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="G5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="H5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="C6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="D6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="E6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="F6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="G6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="H6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>0.12</v>
-      </c>
-      <c r="C7">
-        <v>0.12</v>
-      </c>
-      <c r="D7">
-        <v>0.12</v>
-      </c>
-      <c r="E7">
-        <v>0.12</v>
-      </c>
-      <c r="F7">
-        <v>0.12</v>
-      </c>
-      <c r="G7">
-        <v>0.12</v>
-      </c>
-      <c r="H7">
-        <v>0.12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -970,16 +760,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="8" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1005,160 +795,160 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="E3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="F3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="G3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>3.5714285999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H4">
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="C6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="D6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="G6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="H6">
-        <v>4.5454544999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC30D8DD-9E3D-47D4-B288-7FFFA9B36699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8168A-4C5B-41DF-BCCA-E68F8CD694C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
-    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
+    <sheet name="AVL" sheetId="5" r:id="rId2"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId3"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -111,6 +115,15 @@
   </si>
   <si>
     <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>Vehicle Lifetime (years)</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Freight</t>
   </si>
 </sst>
 </file>
@@ -154,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -166,6 +179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,10 +200,75 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Ships"/>
+      <sheetName val="Data"/>
+      <sheetName val="AVL"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="5">
+          <cell r="C5">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>28</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,9 +306,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,9 +341,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,9 +393,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,18 +588,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,47 +605,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -542,23 +656,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A92FDBB-7F6A-4C7C-9A91-BA9C0E195986}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6">
+        <f>[1]Data!C5</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <f>[1]Data!C7</f>
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <f>[1]Data!C62</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
+        <f>[1]Data!B22</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <f>[1]Data!B21</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6">
+        <f>[1]Data!B44</f>
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <f>B5</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f>[1]Data!B52</f>
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <f>[1]Data!B51</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <f>[1]Data!C57</f>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <f>B7</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="8" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -584,167 +801,160 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <f>1/20</f>
-        <v>0.05</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:H2" si="0">1/20</f>
-        <v>0.05</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.09</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="C3">
-        <v>0.09</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="D3">
-        <v>0.09</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="E3">
-        <v>0.09</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="F3">
-        <v>0.09</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="G3">
-        <v>0.09</v>
+        <v>9.0909090999999997E-2</v>
       </c>
       <c r="H3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.0909090999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.1599999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
-        <v>4.1599999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
-        <v>4.1599999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
-        <v>4.1599999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F4">
-        <v>4.1599999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
-        <v>4.1599999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="C5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="D5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="E5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="F5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="G5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="H5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.5555555999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>2.9819999999999999E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="C6">
-        <v>2.9819999999999999E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="D6">
-        <v>2.9819999999999999E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="E6">
-        <v>2.9819999999999999E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="F6">
-        <v>2.9819999999999999E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="G6">
-        <v>2.9819999999999999E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="H6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.8461538000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>5.8700000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C7">
-        <v>5.8700000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D7">
-        <v>6.8000000000000005E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E7">
-        <v>5.8700000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="F7">
-        <v>5.8700000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="G7">
-        <v>5.8700000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="H7">
-        <v>5.8700000000000002E-2</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -760,16 +970,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="8" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -795,160 +1005,160 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G2">
-        <v>7.1999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.7500000000000002E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="C3">
-        <v>5.7500000000000002E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="D3">
-        <v>5.7500000000000002E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="E3">
-        <v>5.7500000000000002E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="F3">
-        <v>5.7500000000000002E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="G3">
-        <v>5.7500000000000002E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="H3">
-        <v>5.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.5714285999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.8000000000000001E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="C4">
-        <v>2.8000000000000001E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="D4">
-        <v>2.8000000000000001E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="E4">
-        <v>2.8000000000000001E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="F4">
-        <v>2.8000000000000001E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="G4">
-        <v>2.8000000000000001E-2</v>
+        <v>4.7619047999999997E-2</v>
       </c>
       <c r="H4">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.7619047999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="C5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="D5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="E5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="F5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="G5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="H5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.5555555999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="C6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="D6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="E6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="F6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="G6">
-        <v>3.0300000000000001E-2</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="H6">
-        <v>3.0300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.5454544999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.111111111</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC30D8DD-9E3D-47D4-B288-7FFFA9B36699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6E853D-967A-4A7D-929E-2E57C99CC705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,14 +476,14 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,47 +491,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -549,16 +549,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -584,40 +584,40 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <f>1/20</f>
-        <v>0.05</v>
+        <f>1/17</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:H2" si="0">1/20</f>
-        <v>0.05</v>
+        <f t="shared" ref="C2:H2" si="0">1/17</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -643,7 +643,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -669,7 +669,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -695,7 +695,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -721,7 +721,7 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -763,13 +763,13 @@
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -795,7 +795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -821,7 +821,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -847,7 +847,7 @@
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -873,7 +873,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -925,7 +925,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8168A-4C5B-41DF-BCCA-E68F8CD694C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6E853D-967A-4A7D-929E-2E57C99CC705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="AVL" sheetId="5" r:id="rId2"/>
-    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId3"/>
-    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId4"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -115,15 +111,6 @@
   </si>
   <si>
     <t>hydrogen vehicle</t>
-  </si>
-  <si>
-    <t>Vehicle Lifetime (years)</t>
-  </si>
-  <si>
-    <t>Passenger</t>
-  </si>
-  <si>
-    <t>Freight</t>
   </si>
 </sst>
 </file>
@@ -167,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -179,10 +166,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,75 +183,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Ships"/>
-      <sheetName val="Data"/>
-      <sheetName val="AVL"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="5">
-          <cell r="C5">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>28</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,9 +224,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,26 +259,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,26 +294,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -588,7 +472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -656,101 +542,209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A92FDBB-7F6A-4C7C-9A91-BA9C0E195986}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6">
-        <v>25</v>
-      </c>
-      <c r="C2" s="6">
-        <f>[1]Data!C5</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <f>1/17</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:H2" si="0">1/17</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6">
-        <f>[1]Data!C7</f>
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
-        <f>[1]Data!C62</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0.09</v>
+      </c>
+      <c r="C3">
+        <v>0.09</v>
+      </c>
+      <c r="D3">
+        <v>0.09</v>
+      </c>
+      <c r="E3">
+        <v>0.09</v>
+      </c>
+      <c r="F3">
+        <v>0.09</v>
+      </c>
+      <c r="G3">
+        <v>0.09</v>
+      </c>
+      <c r="H3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6">
-        <f>[1]Data!B22</f>
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <f>[1]Data!B21</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
-        <f>[1]Data!B44</f>
-        <v>18</v>
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C5">
-        <f>B5</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <f>[1]Data!B52</f>
-        <v>26</v>
+        <v>2.9819999999999999E-2</v>
       </c>
       <c r="C6">
-        <f>[1]Data!B51</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <f>[1]Data!C57</f>
-        <v>9</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="C7">
-        <f>B7</f>
-        <v>9</v>
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.8700000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -759,210 +753,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="8" width="14.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="C2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="D2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="G2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="C3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="D3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="E3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="F3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="G3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-      <c r="H3">
-        <v>9.0909090999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>0.1</v>
-      </c>
-      <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="C5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="E5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="F5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="G5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-      <c r="H5">
-        <v>5.5555555999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="C6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="D6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="E6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="F6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="G6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-      <c r="H6">
-        <v>3.8461538000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>0.12</v>
-      </c>
-      <c r="C7">
-        <v>0.12</v>
-      </c>
-      <c r="D7">
-        <v>0.12</v>
-      </c>
-      <c r="E7">
-        <v>0.12</v>
-      </c>
-      <c r="F7">
-        <v>0.12</v>
-      </c>
-      <c r="G7">
-        <v>0.12</v>
-      </c>
-      <c r="H7">
-        <v>0.12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -970,13 +760,13 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="8" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1010,25 +800,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1036,25 +826,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="E3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="F3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="G3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>3.5714285999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1062,25 +852,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H4">
-        <v>4.7619047999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1088,25 +878,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H5">
-        <v>5.5555555999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1114,25 +904,25 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="C6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="D6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="G6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="H6">
-        <v>4.5454544999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1140,25 +930,25 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.111111111</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6E853D-967A-4A7D-929E-2E57C99CC705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B572B393-2293-47FB-8029-7D485036E872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -476,14 +476,14 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,47 +491,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -549,16 +549,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="8" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -617,7 +617,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -643,7 +643,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -669,7 +669,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -695,7 +695,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -721,30 +721,30 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="C7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="D7">
-        <v>6.8000000000000005E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="E7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="F7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="G7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="H7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -763,13 +763,13 @@
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="8" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -795,7 +795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -821,7 +821,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -847,7 +847,7 @@
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -873,7 +873,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -925,7 +925,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B572B393-2293-47FB-8029-7D485036E872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6E853D-967A-4A7D-929E-2E57C99CC705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -476,14 +476,14 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,47 +491,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -549,16 +549,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -617,7 +617,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -643,7 +643,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -669,7 +669,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -695,7 +695,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -721,30 +721,30 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="D7">
-        <v>5.8500000000000003E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="F7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="G7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="H7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -763,13 +763,13 @@
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -795,7 +795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -821,7 +821,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -847,7 +847,7 @@
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -873,7 +873,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -925,7 +925,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B572B393-2293-47FB-8029-7D485036E872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B539881-35F2-4ACF-93AE-EB11A251A4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -548,7 +548,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
@@ -760,7 +760,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="B2" sqref="B2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,25 +800,32 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.1999999999999995E-2</v>
+        <f>1/17</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="C2">
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" ref="C2:H2" si="0">1/17</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="D2">
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E2">
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="F2">
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="G2">
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="H2">
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,25 +833,32 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.7500000000000002E-2</v>
+        <f>1/19</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="C3">
-        <v>5.7500000000000002E-2</v>
+        <f t="shared" ref="C3:H3" si="1">1/19</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="D3">
-        <v>5.7500000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E3">
-        <v>5.7500000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="F3">
-        <v>5.7500000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="G3">
-        <v>5.7500000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="H3">
-        <v>5.7500000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B572B393-2293-47FB-8029-7D485036E872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD689495-C175-4B32-BCE1-FCC62C79728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29745" yWindow="1425" windowWidth="27375" windowHeight="15225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
-    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
+    <sheet name="ACEA Stock" sheetId="5" r:id="rId2"/>
+    <sheet name="ACEA Sales" sheetId="6" r:id="rId3"/>
+    <sheet name="calcs" sheetId="7" r:id="rId4"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId5"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -111,13 +114,202 @@
   </si>
   <si>
     <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>% change</t>
+  </si>
+  <si>
+    <t>22/21</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>5,31 5,875</t>
+  </si>
+  <si>
+    <t>+1 .6</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>+1 .9</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>+1 .2</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>+1 .0</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>+1 9</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>EUROPEAN UNION</t>
+  </si>
+  <si>
+    <t>CARS ON ROAD</t>
+  </si>
+  <si>
+    <t>https://www.acea.auto/files/ACEA-Report-Vehicles-on-European-roads-.pdf</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Passenger Cars</t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>vans</t>
+  </si>
+  <si>
+    <t>trucks</t>
+  </si>
+  <si>
+    <t>Buses</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>Vans</t>
+  </si>
+  <si>
+    <t>inland</t>
+  </si>
+  <si>
+    <t>+1 _ 1</t>
+  </si>
+  <si>
+    <t>8/1,286</t>
+  </si>
+  <si>
+    <t>+0 g</t>
+  </si>
+  <si>
+    <t>137,1 52</t>
+  </si>
+  <si>
+    <t>Czech ia</t>
+  </si>
+  <si>
+    <t>41 n 56</t>
+  </si>
+  <si>
+    <t>+1 _5</t>
+  </si>
+  <si>
+    <t>+2./</t>
+  </si>
+  <si>
+    <t>1 58,108</t>
+  </si>
+  <si>
+    <t>1,1 50,493</t>
+  </si>
+  <si>
+    <t>+0.b</t>
+  </si>
+  <si>
+    <t>-1 3</t>
+  </si>
+  <si>
+    <t>2.12/</t>
+  </si>
+  <si>
+    <t>buses</t>
+  </si>
+  <si>
+    <t>Share of vehicles that are new this year</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/road_eqs_lorroa__custom_12791916/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>Using eurostat data to align better with SYVbT</t>
+  </si>
+  <si>
+    <t>Using IDEES data to better align with SYVbT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +325,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,10 +375,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -166,9 +393,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{93B20D57-976F-49E0-B368-38EB2E176229}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{AEEAC241-4197-4196-A816-A8CB3DCDA3BC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -181,6 +419,1346 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calcs!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Passenger Cars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>calcs!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>calcs!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.3513070729990078E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3489407911602317E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0324092592718512E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8857139556321266E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6725304130200163E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B9E-416E-AC16-2425DADF35E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calcs!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>calcs!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>calcs!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.8590843877940689E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0734352191140107E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2633856773290693E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.359738562091503E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0383085705738106E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B9E-416E-AC16-2425DADF35E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calcs!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>calcs!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>calcs!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5524789260406585E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5803513585610304E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3386125960732361E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6554760876554061E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5776587042183174E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B9E-416E-AC16-2425DADF35E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calcs!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trucks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>calcs!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>calcs!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0404717788497909E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9126711508044286E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3831472858282323E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0326828603212623E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0838049590362082E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3B9E-416E-AC16-2425DADF35E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1086407040"/>
+        <c:axId val="1086406560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1086407040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1086406560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1086406560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1086407040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18143C1-7B86-8A3E-D5C7-06E119FDFB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="180976"/>
+          <a:ext cx="4410075" cy="5083912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292336</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4152E227-27E8-8B02-FA82-B9366CC1A504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5429250"/>
+          <a:ext cx="4597636" cy="5239019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295511</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>16146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E382FE5E-53C2-6FC3-4CC8-5D22F323DC44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10858500"/>
+          <a:ext cx="4597636" cy="5264421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266935</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>139968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F18A8B8-984D-5161-189C-BC915DA333A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16287750"/>
+          <a:ext cx="4572235" cy="5207268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DAD4D34-5E6F-9000-2987-850015004201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,17 +2051,17 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,47 +2069,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -542,23 +2120,2923 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E0A954-A9C2-4E7B-AF38-EE74577DFD4A}">
+  <dimension ref="A1:T120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R121" sqref="R121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="10.90625" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>2018</v>
+      </c>
+      <c r="M3">
+        <v>2019</v>
+      </c>
+      <c r="N3">
+        <v>2020</v>
+      </c>
+      <c r="O3">
+        <v>2021</v>
+      </c>
+      <c r="P3">
+        <v>2022</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4978852</v>
+      </c>
+      <c r="M4" s="5">
+        <v>5039548</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5091827</v>
+      </c>
+      <c r="O4" s="5">
+        <v>5133836</v>
+      </c>
+      <c r="P4" s="5">
+        <v>5150890</v>
+      </c>
+      <c r="Q4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5782684</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5813771</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5827195</v>
+      </c>
+      <c r="O5" s="5">
+        <v>5851682</v>
+      </c>
+      <c r="P5" s="5">
+        <v>5877949</v>
+      </c>
+      <c r="Q5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1665391</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1728911</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1733727</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1794352</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1836016</v>
+      </c>
+      <c r="Q6">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="5">
+        <v>550695</v>
+      </c>
+      <c r="M7" s="5">
+        <v>572501</v>
+      </c>
+      <c r="N7" s="5">
+        <v>578158</v>
+      </c>
+      <c r="O7" s="5">
+        <v>592156</v>
+      </c>
+      <c r="P7" s="5">
+        <v>601131</v>
+      </c>
+      <c r="Q7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="5">
+        <v>5802521</v>
+      </c>
+      <c r="M8" s="5">
+        <v>5989538</v>
+      </c>
+      <c r="N8" s="5">
+        <v>6129874</v>
+      </c>
+      <c r="O8" s="5">
+        <v>6293125</v>
+      </c>
+      <c r="P8" s="5">
+        <v>6425417</v>
+      </c>
+      <c r="Q8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2593591</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2650227</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2720271</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2781860</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2794055</v>
+      </c>
+      <c r="Q9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="5">
+        <v>746464</v>
+      </c>
+      <c r="M10" s="5">
+        <v>794926</v>
+      </c>
+      <c r="N10" s="5">
+        <v>808689</v>
+      </c>
+      <c r="O10" s="5">
+        <v>825936</v>
+      </c>
+      <c r="P10" s="5">
+        <v>849294</v>
+      </c>
+      <c r="Q10">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2696.3339999999998</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2720307</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2748448</v>
+      </c>
+      <c r="O11" s="5">
+        <v>2755349</v>
+      </c>
+      <c r="P11" s="6">
+        <v>2740.393</v>
+      </c>
+      <c r="Q11">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="5">
+        <v>38229305</v>
+      </c>
+      <c r="M12" s="5">
+        <v>38421218</v>
+      </c>
+      <c r="N12" s="5">
+        <v>38467643</v>
+      </c>
+      <c r="O12" s="5">
+        <v>38814659</v>
+      </c>
+      <c r="P12" s="5">
+        <v>38856492</v>
+      </c>
+      <c r="Q12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="5">
+        <v>47095784</v>
+      </c>
+      <c r="M13" s="5">
+        <v>47715977</v>
+      </c>
+      <c r="N13" s="5">
+        <v>48248584</v>
+      </c>
+      <c r="O13" s="5">
+        <v>48540878</v>
+      </c>
+      <c r="P13" s="5">
+        <v>48763036</v>
+      </c>
+      <c r="Q13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="5">
+        <v>5164183</v>
+      </c>
+      <c r="M14" s="5">
+        <v>5247295</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="5">
+        <v>5408149</v>
+      </c>
+      <c r="P14" s="5">
+        <v>5495927</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3638374</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3809670</v>
+      </c>
+      <c r="N15" s="5">
+        <v>3918923</v>
+      </c>
+      <c r="O15" s="5">
+        <v>4017574</v>
+      </c>
+      <c r="P15">
+        <v>4091975</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2104060</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2172098</v>
+      </c>
+      <c r="N16" s="5">
+        <v>2215127</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2266479</v>
+      </c>
+      <c r="P16" s="5">
+        <v>2292748</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="5">
+        <v>39018170</v>
+      </c>
+      <c r="M17" s="5">
+        <v>39545232</v>
+      </c>
+      <c r="N17" s="5">
+        <v>39717874</v>
+      </c>
+      <c r="O17" s="5">
+        <v>39822723</v>
+      </c>
+      <c r="P17" s="5">
+        <v>40213061</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18">
+        <v>707.55899999999997</v>
+      </c>
+      <c r="M18" s="5">
+        <v>726501</v>
+      </c>
+      <c r="N18" s="5">
+        <v>736953</v>
+      </c>
+      <c r="O18" s="5">
+        <v>757821</v>
+      </c>
+      <c r="P18" s="5">
+        <v>769345</v>
+      </c>
+      <c r="Q18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1238119</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1264084</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1285743</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1326246</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1347548</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="5">
+        <v>415128</v>
+      </c>
+      <c r="M20" s="5">
+        <v>426346</v>
+      </c>
+      <c r="N20" s="5">
+        <v>433183</v>
+      </c>
+      <c r="O20" s="5">
+        <v>439919</v>
+      </c>
+      <c r="P20" s="5">
+        <v>448454</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="5">
+        <v>8787283</v>
+      </c>
+      <c r="M21" s="5">
+        <v>8938572</v>
+      </c>
+      <c r="N21" s="5">
+        <v>9049959</v>
+      </c>
+      <c r="O21" s="5">
+        <v>9142277</v>
+      </c>
+      <c r="P21" s="5">
+        <v>9233107</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22">
+        <v>23429016</v>
+      </c>
+      <c r="M22" s="5">
+        <v>24360166</v>
+      </c>
+      <c r="N22" s="5">
+        <v>25113862</v>
+      </c>
+      <c r="O22" s="5">
+        <v>25869804</v>
+      </c>
+      <c r="P22" s="5">
+        <v>26457659</v>
+      </c>
+      <c r="Q22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="5">
+        <v>5015000</v>
+      </c>
+      <c r="M23" s="5">
+        <v>5205000</v>
+      </c>
+      <c r="N23" s="5">
+        <v>5300000</v>
+      </c>
+      <c r="O23" s="5">
+        <v>5410000</v>
+      </c>
+      <c r="P23" s="5">
+        <v>5560000</v>
+      </c>
+      <c r="Q23">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="24" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="5">
+        <v>6450750</v>
+      </c>
+      <c r="M24" s="5">
+        <v>6901236</v>
+      </c>
+      <c r="N24" s="5">
+        <v>7274728</v>
+      </c>
+      <c r="O24" s="5">
+        <v>7611039</v>
+      </c>
+      <c r="P24" s="5">
+        <v>7865186</v>
+      </c>
+      <c r="Q24">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="6">
+        <v>2326.7869999999998</v>
+      </c>
+      <c r="M25" s="5">
+        <v>2391355</v>
+      </c>
+      <c r="N25" s="5">
+        <v>2444478</v>
+      </c>
+      <c r="O25" s="5">
+        <v>2645785</v>
+      </c>
+      <c r="P25" s="5">
+        <v>2721252</v>
+      </c>
+      <c r="Q25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="26" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1220814</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1249364</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1253984</v>
+      </c>
+      <c r="O26" s="5">
+        <v>1202547</v>
+      </c>
+      <c r="P26" s="5">
+        <v>1221702</v>
+      </c>
+      <c r="Q26">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="27" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="5">
+        <v>24520287</v>
+      </c>
+      <c r="M27" s="5">
+        <v>25008216</v>
+      </c>
+      <c r="N27" s="5">
+        <v>25129152</v>
+      </c>
+      <c r="O27" s="5">
+        <v>25343873</v>
+      </c>
+      <c r="P27" s="5">
+        <v>25644595</v>
+      </c>
+      <c r="Q27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="5">
+        <v>4870783</v>
+      </c>
+      <c r="M28" s="6">
+        <v>4887.9040000000005</v>
+      </c>
+      <c r="N28" s="5">
+        <v>4944067</v>
+      </c>
+      <c r="O28" s="5">
+        <v>4986750</v>
+      </c>
+      <c r="P28" s="5">
+        <v>4980543</v>
+      </c>
+      <c r="Q28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="5">
+        <v>239047934</v>
+      </c>
+      <c r="M29" s="5">
+        <v>243579963</v>
+      </c>
+      <c r="N29" s="5">
+        <v>246488324</v>
+      </c>
+      <c r="O29" s="5">
+        <v>249634819</v>
+      </c>
+      <c r="P29" s="5">
+        <v>252237775</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="Q31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>2018</v>
+      </c>
+      <c r="M32">
+        <v>2019</v>
+      </c>
+      <c r="N32">
+        <v>2020</v>
+      </c>
+      <c r="O32">
+        <v>2021</v>
+      </c>
+      <c r="P32">
+        <v>2022</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="5">
+        <v>422745</v>
+      </c>
+      <c r="M33" s="5">
+        <v>440582</v>
+      </c>
+      <c r="N33" s="5">
+        <v>458253</v>
+      </c>
+      <c r="O33" s="5">
+        <v>493387</v>
+      </c>
+      <c r="P33" s="5">
+        <v>498325</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34">
+        <v>769679</v>
+      </c>
+      <c r="M34">
+        <v>798942</v>
+      </c>
+      <c r="N34" s="5">
+        <v>829277</v>
+      </c>
+      <c r="O34" s="5">
+        <v>861148</v>
+      </c>
+      <c r="P34" s="5">
+        <v>868994</v>
+      </c>
+      <c r="Q34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="Q35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="36" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="5">
+        <v>135054</v>
+      </c>
+      <c r="M36" s="5">
+        <v>145750</v>
+      </c>
+      <c r="N36" s="5">
+        <v>152923</v>
+      </c>
+      <c r="O36" s="5">
+        <v>162644</v>
+      </c>
+      <c r="P36" s="5">
+        <v>169976</v>
+      </c>
+    </row>
+    <row r="37" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="5">
+        <v>98533</v>
+      </c>
+      <c r="M37" s="5">
+        <v>101528</v>
+      </c>
+      <c r="N37">
+        <v>102951</v>
+      </c>
+      <c r="O37" s="5">
+        <v>104216</v>
+      </c>
+      <c r="P37">
+        <v>107.07</v>
+      </c>
+      <c r="Q37">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="38" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38">
+        <v>574.72199999999998</v>
+      </c>
+      <c r="M38">
+        <v>587.18600000000004</v>
+      </c>
+      <c r="N38" s="5">
+        <v>596481</v>
+      </c>
+      <c r="O38" s="5">
+        <v>610405</v>
+      </c>
+      <c r="P38" s="5">
+        <v>620192</v>
+      </c>
+      <c r="Q38">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="39" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="5">
+        <v>389339</v>
+      </c>
+      <c r="M39" s="5">
+        <v>379993</v>
+      </c>
+      <c r="N39" s="5">
+        <v>376236</v>
+      </c>
+      <c r="O39" s="5">
+        <v>373267</v>
+      </c>
+      <c r="P39" s="5">
+        <v>364646</v>
+      </c>
+      <c r="Q39">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="5">
+        <v>83307</v>
+      </c>
+      <c r="M40" s="5">
+        <v>91266</v>
+      </c>
+      <c r="N40" s="5">
+        <v>95246</v>
+      </c>
+      <c r="O40">
+        <v>99094</v>
+      </c>
+      <c r="P40">
+        <v>103037</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L41" s="5">
+        <v>325656</v>
+      </c>
+      <c r="M41" s="5">
+        <v>330671</v>
+      </c>
+      <c r="N41" s="5">
+        <v>338389</v>
+      </c>
+      <c r="O41" s="5">
+        <v>343927</v>
+      </c>
+      <c r="P41" s="5">
+        <v>343715</v>
+      </c>
+      <c r="Q41">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="5">
+        <v>6308971</v>
+      </c>
+      <c r="M42" s="5">
+        <v>6271876</v>
+      </c>
+      <c r="N42" s="5">
+        <v>6262451</v>
+      </c>
+      <c r="O42" s="5">
+        <v>6384963</v>
+      </c>
+      <c r="P42" s="5">
+        <v>6384074</v>
+      </c>
+      <c r="Q42">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="5">
+        <v>2724783</v>
+      </c>
+      <c r="M43" s="5">
+        <v>2856676</v>
+      </c>
+      <c r="N43" s="5">
+        <v>2999416</v>
+      </c>
+      <c r="O43" s="5">
+        <v>3141643</v>
+      </c>
+      <c r="P43" s="5">
+        <v>3222706</v>
+      </c>
+      <c r="Q43">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="44" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="5">
+        <v>889638</v>
+      </c>
+      <c r="M44" s="5">
+        <v>906798</v>
+      </c>
+      <c r="N44" s="5">
+        <v>921776</v>
+      </c>
+      <c r="O44" s="5">
+        <v>944308</v>
+      </c>
+      <c r="P44" s="5">
+        <v>955997</v>
+      </c>
+      <c r="Q44">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K45" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="5">
+        <v>446647</v>
+      </c>
+      <c r="M45" s="5">
+        <v>470454</v>
+      </c>
+      <c r="N45" s="5">
+        <v>485582</v>
+      </c>
+      <c r="O45" s="5">
+        <v>501553</v>
+      </c>
+      <c r="P45" s="5">
+        <v>510754</v>
+      </c>
+      <c r="Q45">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="46" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="5">
+        <v>380883</v>
+      </c>
+      <c r="M46" s="5">
+        <v>395379</v>
+      </c>
+      <c r="N46" s="5">
+        <v>397702</v>
+      </c>
+      <c r="O46" s="5">
+        <v>404521</v>
+      </c>
+      <c r="P46" s="5">
+        <v>409453</v>
+      </c>
+      <c r="Q46">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K47" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47" s="5">
+        <v>4108520</v>
+      </c>
+      <c r="M47" s="5">
+        <v>4172982</v>
+      </c>
+      <c r="N47" s="5">
+        <v>4260610</v>
+      </c>
+      <c r="O47" s="5">
+        <v>4318840</v>
+      </c>
+      <c r="P47" s="5">
+        <v>4403430</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48">
+        <v>57.612000000000002</v>
+      </c>
+      <c r="M48" s="5">
+        <v>59456</v>
+      </c>
+      <c r="N48" s="5">
+        <v>60707</v>
+      </c>
+      <c r="O48" s="5">
+        <v>63177</v>
+      </c>
+      <c r="P48" s="5">
+        <v>65353</v>
+      </c>
+      <c r="Q48">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="49" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L49" s="5">
+        <v>49576</v>
+      </c>
+      <c r="M49" s="5">
+        <v>50628</v>
+      </c>
+      <c r="N49">
+        <v>52799</v>
+      </c>
+      <c r="O49" s="5">
+        <v>56012</v>
+      </c>
+      <c r="P49" s="5">
+        <v>58518</v>
+      </c>
+      <c r="Q49">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K50" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" s="5">
+        <v>36603</v>
+      </c>
+      <c r="M50" s="5">
+        <v>38547</v>
+      </c>
+      <c r="N50" s="5">
+        <v>39006</v>
+      </c>
+      <c r="O50" s="5">
+        <v>40872</v>
+      </c>
+      <c r="P50" s="5">
+        <v>42417</v>
+      </c>
+      <c r="Q50">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="51" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K51" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="5">
+        <v>995796</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1021225</v>
+      </c>
+      <c r="N51" s="5">
+        <v>1031010</v>
+      </c>
+      <c r="O51" s="5">
+        <v>1057084</v>
+      </c>
+      <c r="P51" s="5">
+        <v>1082829</v>
+      </c>
+      <c r="Q51">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="52" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K52" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="5">
+        <v>2649198</v>
+      </c>
+      <c r="M52" s="5">
+        <v>2733004</v>
+      </c>
+      <c r="N52" s="5">
+        <v>2814490</v>
+      </c>
+      <c r="O52" s="5">
+        <v>2905731</v>
+      </c>
+      <c r="P52" s="5">
+        <v>2974632</v>
+      </c>
+      <c r="Q52">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="53" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K53" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1120000</v>
+      </c>
+      <c r="M53" s="5">
+        <v>1135000</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1140000</v>
+      </c>
+      <c r="O53" s="5">
+        <v>1150000</v>
+      </c>
+      <c r="P53" s="5">
+        <v>1163000</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K54" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" s="5">
+        <v>758037</v>
+      </c>
+      <c r="M54" t="s">
+        <v>72</v>
+      </c>
+      <c r="N54" s="5">
+        <v>850998</v>
+      </c>
+      <c r="O54" s="5">
+        <v>842847</v>
+      </c>
+      <c r="P54" s="5">
+        <v>886802</v>
+      </c>
+      <c r="Q54">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="55" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K55" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="5">
+        <v>259629</v>
+      </c>
+      <c r="M55" s="5">
+        <v>263913</v>
+      </c>
+      <c r="N55" s="5">
+        <v>268000</v>
+      </c>
+      <c r="O55" s="5">
+        <v>285860</v>
+      </c>
+      <c r="P55" s="5">
+        <v>292116</v>
+      </c>
+      <c r="Q55">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K56" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" s="5">
+        <v>83718</v>
+      </c>
+      <c r="M56" s="5">
+        <v>88361</v>
+      </c>
+      <c r="N56" s="5">
+        <v>91331</v>
+      </c>
+      <c r="O56">
+        <v>94850</v>
+      </c>
+      <c r="P56" s="5">
+        <v>98531</v>
+      </c>
+      <c r="Q56">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="57" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K57" t="s">
+        <v>57</v>
+      </c>
+      <c r="L57" s="5">
+        <v>3665518</v>
+      </c>
+      <c r="M57" s="5">
+        <v>3786536</v>
+      </c>
+      <c r="N57" s="5">
+        <v>3828504</v>
+      </c>
+      <c r="O57" s="5">
+        <v>3898159</v>
+      </c>
+      <c r="P57">
+        <v>3955750</v>
+      </c>
+      <c r="Q57">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K58" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58">
+        <v>572.07500000000005</v>
+      </c>
+      <c r="M58">
+        <v>585091</v>
+      </c>
+      <c r="N58">
+        <v>595.58000000000004</v>
+      </c>
+      <c r="O58">
+        <v>605668</v>
+      </c>
+      <c r="P58">
+        <v>608.87099999999998</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K59" t="s">
+        <v>59</v>
+      </c>
+      <c r="L59" s="5">
+        <v>27906239</v>
+      </c>
+      <c r="M59" s="5">
+        <v>28523130</v>
+      </c>
+      <c r="N59" s="5">
+        <v>29049728</v>
+      </c>
+      <c r="O59" s="5">
+        <v>29744175</v>
+      </c>
+      <c r="P59" s="5">
+        <v>30191188</v>
+      </c>
+      <c r="Q59">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K60" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L60" s="10">
+        <v>25963441</v>
+      </c>
+      <c r="M60" s="10">
+        <v>26555892</v>
+      </c>
+      <c r="N60" s="10">
+        <v>26961593</v>
+      </c>
+      <c r="O60" s="10">
+        <v>27618559</v>
+      </c>
+      <c r="P60" s="10">
+        <v>27967026</v>
+      </c>
+      <c r="T60" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="R61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="M63">
+        <v>2018</v>
+      </c>
+      <c r="N63">
+        <v>2019</v>
+      </c>
+      <c r="O63">
+        <v>2020</v>
+      </c>
+      <c r="P63">
+        <v>2021</v>
+      </c>
+      <c r="Q63">
+        <v>2022</v>
+      </c>
+      <c r="R63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K64" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" s="5">
+        <v>72486</v>
+      </c>
+      <c r="N64" s="5">
+        <v>73336</v>
+      </c>
+      <c r="O64" s="5">
+        <v>73378</v>
+      </c>
+      <c r="P64" s="5">
+        <v>74473</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>75171</v>
+      </c>
+      <c r="R64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K65" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65">
+        <v>137.434</v>
+      </c>
+      <c r="N65" s="5">
+        <v>139136</v>
+      </c>
+      <c r="O65" s="5">
+        <v>138415</v>
+      </c>
+      <c r="P65" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>137467</v>
+      </c>
+      <c r="R65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" s="5">
+        <v>45720</v>
+      </c>
+      <c r="N66" s="5">
+        <v>47536</v>
+      </c>
+      <c r="O66" s="5">
+        <v>48621</v>
+      </c>
+      <c r="P66">
+        <v>51072</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>52581</v>
+      </c>
+      <c r="R66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K67" t="s">
+        <v>31</v>
+      </c>
+      <c r="M67" s="5">
+        <v>12509</v>
+      </c>
+      <c r="N67" s="5">
+        <v>13016</v>
+      </c>
+      <c r="O67" s="5">
+        <v>13329</v>
+      </c>
+      <c r="P67" s="5">
+        <v>13710</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>13825</v>
+      </c>
+      <c r="R67">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="68" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K68" t="s">
+        <v>75</v>
+      </c>
+      <c r="M68">
+        <v>187.483</v>
+      </c>
+      <c r="N68" s="5">
+        <v>186881</v>
+      </c>
+      <c r="O68" s="5">
+        <v>185602</v>
+      </c>
+      <c r="P68" s="5">
+        <v>186905</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>187035</v>
+      </c>
+      <c r="R68">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K69" t="s">
+        <v>33</v>
+      </c>
+      <c r="M69" s="5">
+        <v>42751</v>
+      </c>
+      <c r="N69" s="5">
+        <v>42586</v>
+      </c>
+      <c r="O69" s="5">
+        <v>42266</v>
+      </c>
+      <c r="P69" s="5">
+        <v>43227</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>43483</v>
+      </c>
+      <c r="R69">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="70" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K70" t="s">
+        <v>34</v>
+      </c>
+      <c r="M70" s="5">
+        <v>37911</v>
+      </c>
+      <c r="N70" s="5">
+        <v>39848</v>
+      </c>
+      <c r="O70" s="5">
+        <v>40106</v>
+      </c>
+      <c r="P70" s="5">
+        <v>41014</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>76</v>
+      </c>
+      <c r="R70">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="71" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K71" t="s">
+        <v>35</v>
+      </c>
+      <c r="M71" s="5">
+        <v>96169</v>
+      </c>
+      <c r="N71" s="5">
+        <v>95141</v>
+      </c>
+      <c r="O71" s="5">
+        <v>94691</v>
+      </c>
+      <c r="P71" s="5">
+        <v>94771</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>92633</v>
+      </c>
+      <c r="R71">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K72" t="s">
+        <v>36</v>
+      </c>
+      <c r="M72" s="5">
+        <v>603694</v>
+      </c>
+      <c r="N72" s="5">
+        <v>609822</v>
+      </c>
+      <c r="O72" s="5">
+        <v>607789</v>
+      </c>
+      <c r="P72" s="5">
+        <v>616886</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>620593</v>
+      </c>
+      <c r="R72">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K73" t="s">
+        <v>37</v>
+      </c>
+      <c r="M73" s="5">
+        <v>946541</v>
+      </c>
+      <c r="N73" s="5">
+        <v>951481</v>
+      </c>
+      <c r="O73" s="5">
+        <v>952285</v>
+      </c>
+      <c r="P73" s="5">
+        <v>964696</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>990403</v>
+      </c>
+      <c r="R73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K74" t="s">
+        <v>38</v>
+      </c>
+      <c r="M74" s="5">
+        <v>229776</v>
+      </c>
+      <c r="N74" s="5">
+        <v>226913</v>
+      </c>
+      <c r="O74" s="5">
+        <v>225216</v>
+      </c>
+      <c r="P74" s="5">
+        <v>225571</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>224719</v>
+      </c>
+      <c r="R74">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="75" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K75" t="s">
+        <v>41</v>
+      </c>
+      <c r="M75" s="5">
+        <v>94966</v>
+      </c>
+      <c r="N75" s="5">
+        <v>96109</v>
+      </c>
+      <c r="O75" s="5">
+        <v>94306</v>
+      </c>
+      <c r="P75" s="5">
+        <v>95964</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>96272</v>
+      </c>
+      <c r="R75">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="76" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K76" t="s">
+        <v>43</v>
+      </c>
+      <c r="M76" s="5">
+        <v>47259</v>
+      </c>
+      <c r="N76" s="5">
+        <v>48311</v>
+      </c>
+      <c r="O76" s="5">
+        <v>47273</v>
+      </c>
+      <c r="P76" s="5">
+        <v>48158</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>48875</v>
+      </c>
+      <c r="R76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K77" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" s="5">
+        <v>941994</v>
+      </c>
+      <c r="N77" s="5">
+        <v>946393</v>
+      </c>
+      <c r="O77" s="5">
+        <v>949967</v>
+      </c>
+      <c r="P77" s="5">
+        <v>960284</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>969488</v>
+      </c>
+    </row>
+    <row r="78" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K78" t="s">
+        <v>47</v>
+      </c>
+      <c r="M78" s="5">
+        <v>33481</v>
+      </c>
+      <c r="N78" s="5">
+        <v>33739</v>
+      </c>
+      <c r="O78" s="5">
+        <v>33116</v>
+      </c>
+      <c r="P78" s="5">
+        <v>33144</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>33367</v>
+      </c>
+      <c r="R78">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="79" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K79" t="s">
+        <v>48</v>
+      </c>
+      <c r="M79" s="5">
+        <v>65996</v>
+      </c>
+      <c r="N79" s="5">
+        <v>67111</v>
+      </c>
+      <c r="O79" s="5">
+        <v>69780</v>
+      </c>
+      <c r="P79" s="5">
+        <v>73019</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>80424</v>
+      </c>
+    </row>
+    <row r="80" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K80" t="s">
+        <v>49</v>
+      </c>
+      <c r="M80">
+        <v>12055</v>
+      </c>
+      <c r="N80" s="5">
+        <v>12300</v>
+      </c>
+      <c r="O80" s="5">
+        <v>13784</v>
+      </c>
+      <c r="P80" s="5">
+        <v>13966</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>14266</v>
+      </c>
+      <c r="R80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K81" t="s">
+        <v>51</v>
+      </c>
+      <c r="M81">
+        <v>158.41</v>
+      </c>
+      <c r="N81" s="5">
+        <v>160608</v>
+      </c>
+      <c r="O81" s="5">
+        <v>157638</v>
+      </c>
+      <c r="P81" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>161829</v>
+      </c>
+      <c r="R81">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K82" t="s">
+        <v>52</v>
+      </c>
+      <c r="M82" s="5">
+        <v>1108975</v>
+      </c>
+      <c r="N82" t="s">
+        <v>80</v>
+      </c>
+      <c r="O82" s="5">
+        <v>1184677</v>
+      </c>
+      <c r="P82" s="5">
+        <v>1234074</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>1276594</v>
+      </c>
+      <c r="R82">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K83" t="s">
+        <v>53</v>
+      </c>
+      <c r="M83" s="5">
+        <v>130000</v>
+      </c>
+      <c r="N83" s="5">
+        <v>132500</v>
+      </c>
+      <c r="O83" s="5">
+        <v>134000</v>
+      </c>
+      <c r="P83" s="5">
+        <v>135000</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>135800</v>
+      </c>
+      <c r="R83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K84" t="s">
+        <v>54</v>
+      </c>
+      <c r="M84">
+        <v>288309</v>
+      </c>
+      <c r="N84" s="5">
+        <v>296489</v>
+      </c>
+      <c r="O84" s="5">
+        <v>346911</v>
+      </c>
+      <c r="P84" s="5">
+        <v>348517</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>366693</v>
+      </c>
+      <c r="R84">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K85" t="s">
+        <v>55</v>
+      </c>
+      <c r="M85" s="5">
+        <v>85241</v>
+      </c>
+      <c r="N85" s="5">
+        <v>81083</v>
+      </c>
+      <c r="O85" s="5">
+        <v>78959</v>
+      </c>
+      <c r="P85" s="5">
+        <v>83341</v>
+      </c>
+      <c r="Q85">
+        <v>82867</v>
+      </c>
+      <c r="R85">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K86" t="s">
+        <v>56</v>
+      </c>
+      <c r="M86" s="5">
+        <v>35864</v>
+      </c>
+      <c r="N86" s="5">
+        <v>37285</v>
+      </c>
+      <c r="O86" s="5">
+        <v>37674</v>
+      </c>
+      <c r="P86" s="5">
+        <v>37951</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>38463</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K87" t="s">
+        <v>57</v>
+      </c>
+      <c r="M87" s="5">
+        <v>590674</v>
+      </c>
+      <c r="N87" s="5">
+        <v>607020</v>
+      </c>
+      <c r="O87" s="5">
+        <v>566362</v>
+      </c>
+      <c r="P87" s="5">
+        <v>571867</v>
+      </c>
+      <c r="Q87" s="5">
+        <v>581631</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K88" t="s">
+        <v>58</v>
+      </c>
+      <c r="M88" s="5">
+        <v>83977</v>
+      </c>
+      <c r="N88" s="5">
+        <v>84153</v>
+      </c>
+      <c r="O88" s="5">
+        <v>84333</v>
+      </c>
+      <c r="P88" s="5">
+        <v>85554</v>
+      </c>
+      <c r="Q88">
+        <v>86.06</v>
+      </c>
+      <c r="R88">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K89" t="s">
+        <v>59</v>
+      </c>
+      <c r="M89" s="5">
+        <v>6089675</v>
+      </c>
+      <c r="N89" s="5">
+        <v>6179290</v>
+      </c>
+      <c r="O89" s="5">
+        <v>6220478</v>
+      </c>
+      <c r="P89" s="5">
+        <v>6328424</v>
+      </c>
+      <c r="Q89" s="5">
+        <v>6451695</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="M90" s="11">
+        <v>5486045</v>
+      </c>
+      <c r="N90" s="11">
+        <v>5633190</v>
+      </c>
+      <c r="O90" s="11">
+        <v>5649274</v>
+      </c>
+      <c r="P90" s="11">
+        <v>5757605</v>
+      </c>
+      <c r="Q90" s="11">
+        <f>P90*Q89/P89</f>
+        <v>5869757.0501715755</v>
+      </c>
+      <c r="T90" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+      <c r="M92">
+        <v>2018</v>
+      </c>
+      <c r="N92">
+        <v>2019</v>
+      </c>
+      <c r="O92">
+        <v>2020</v>
+      </c>
+      <c r="P92">
+        <v>2021</v>
+      </c>
+      <c r="Q92">
+        <v>2022</v>
+      </c>
+      <c r="R92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K93" t="s">
+        <v>28</v>
+      </c>
+      <c r="M93" s="5">
+        <v>10037</v>
+      </c>
+      <c r="N93" s="5">
+        <v>10148</v>
+      </c>
+      <c r="O93" s="5">
+        <v>10064</v>
+      </c>
+      <c r="P93" s="5">
+        <v>10136</v>
+      </c>
+      <c r="Q93" s="5">
+        <v>10373</v>
+      </c>
+      <c r="R93">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K94" t="s">
+        <v>29</v>
+      </c>
+      <c r="M94" s="5">
+        <v>16147</v>
+      </c>
+      <c r="N94" s="5">
+        <v>16390</v>
+      </c>
+      <c r="O94" s="5">
+        <v>16451</v>
+      </c>
+      <c r="P94" s="5">
+        <v>16606</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>16383</v>
+      </c>
+      <c r="R94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K95" t="s">
+        <v>30</v>
+      </c>
+      <c r="M95" s="5">
+        <v>5887</v>
+      </c>
+      <c r="N95" s="5">
+        <v>6110</v>
+      </c>
+      <c r="O95" s="5">
+        <v>4827</v>
+      </c>
+      <c r="P95" s="5">
+        <v>5136</v>
+      </c>
+      <c r="Q95" s="5">
+        <v>5703</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="R96">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="97" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K97" t="s">
+        <v>31</v>
+      </c>
+      <c r="M97" s="5">
+        <v>3084</v>
+      </c>
+      <c r="N97" s="5">
+        <v>3151</v>
+      </c>
+      <c r="O97" s="5">
+        <v>2655</v>
+      </c>
+      <c r="P97" s="5">
+        <v>2774</v>
+      </c>
+      <c r="Q97" s="5">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="98" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K98" t="s">
+        <v>32</v>
+      </c>
+      <c r="M98" s="5">
+        <v>21443</v>
+      </c>
+      <c r="N98" s="5">
+        <v>21705</v>
+      </c>
+      <c r="O98">
+        <v>19.661000000000001</v>
+      </c>
+      <c r="P98" s="5">
+        <v>20489</v>
+      </c>
+      <c r="Q98" s="5">
+        <v>21228</v>
+      </c>
+      <c r="R98">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="99" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K99" t="s">
+        <v>33</v>
+      </c>
+      <c r="M99" s="5">
+        <v>8981</v>
+      </c>
+      <c r="N99" s="5">
+        <v>8940</v>
+      </c>
+      <c r="O99" s="5">
+        <v>8546</v>
+      </c>
+      <c r="P99" s="5">
+        <v>8684</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>8624</v>
+      </c>
+      <c r="R99">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="100" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K100" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100">
+        <v>4973</v>
+      </c>
+      <c r="N100" s="5">
+        <v>5221</v>
+      </c>
+      <c r="O100" s="5">
+        <v>5235</v>
+      </c>
+      <c r="P100" s="5">
+        <v>5327</v>
+      </c>
+      <c r="Q100" s="5">
+        <v>5365</v>
+      </c>
+      <c r="R100">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="101" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K101" t="s">
+        <v>35</v>
+      </c>
+      <c r="M101" s="5">
+        <v>12623</v>
+      </c>
+      <c r="N101" s="5">
+        <v>12481</v>
+      </c>
+      <c r="O101" s="5">
+        <v>12577</v>
+      </c>
+      <c r="P101" s="5">
+        <v>9955</v>
+      </c>
+      <c r="Q101" s="5">
+        <v>11115</v>
+      </c>
+    </row>
+    <row r="102" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K102" t="s">
+        <v>36</v>
+      </c>
+      <c r="M102" s="5">
+        <v>90807</v>
+      </c>
+      <c r="O102" s="5">
+        <v>92908</v>
+      </c>
+      <c r="P102" s="5">
+        <v>94519</v>
+      </c>
+      <c r="Q102" s="5">
+        <v>94074</v>
+      </c>
+      <c r="R102">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K103" t="s">
+        <v>37</v>
+      </c>
+      <c r="M103" s="5">
+        <v>80519</v>
+      </c>
+      <c r="N103">
+        <v>81364</v>
+      </c>
+      <c r="O103" s="5">
+        <v>75548</v>
+      </c>
+      <c r="P103" s="5">
+        <v>80225</v>
+      </c>
+      <c r="Q103" s="5">
+        <v>82932</v>
+      </c>
+      <c r="R103">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="104" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K104" t="s">
+        <v>38</v>
+      </c>
+      <c r="M104" s="5">
+        <v>27970</v>
+      </c>
+      <c r="N104" s="5">
+        <v>27988</v>
+      </c>
+      <c r="O104" s="5">
+        <v>28196</v>
+      </c>
+      <c r="P104" s="5">
+        <v>28034</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>27662</v>
+      </c>
+    </row>
+    <row r="105" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K105" t="s">
+        <v>41</v>
+      </c>
+      <c r="M105" s="5">
+        <v>19091</v>
+      </c>
+      <c r="N105" s="5">
+        <v>19450</v>
+      </c>
+      <c r="O105" s="5">
+        <v>16958</v>
+      </c>
+      <c r="P105" s="5">
+        <v>17723</v>
+      </c>
+      <c r="Q105" s="5">
+        <v>17628</v>
+      </c>
+      <c r="R105">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K106" t="s">
+        <v>43</v>
+      </c>
+      <c r="M106" s="5">
+        <v>10371</v>
+      </c>
+      <c r="N106" s="5">
+        <v>10944</v>
+      </c>
+      <c r="O106" s="5">
+        <v>6404</v>
+      </c>
+      <c r="P106" s="5">
+        <v>6758</v>
+      </c>
+      <c r="Q106" s="5">
+        <v>6727</v>
+      </c>
+      <c r="R106">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K107" t="s">
+        <v>45</v>
+      </c>
+      <c r="M107" s="5">
+        <v>100042</v>
+      </c>
+      <c r="O107" s="5">
+        <v>99883</v>
+      </c>
+      <c r="P107" s="5">
+        <v>100199</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>100014</v>
+      </c>
+      <c r="R107">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="108" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K108" t="s">
+        <v>47</v>
+      </c>
+      <c r="N108">
+        <v>3979</v>
+      </c>
+      <c r="O108">
+        <v>3.508</v>
+      </c>
+      <c r="P108" s="5">
+        <v>3742</v>
+      </c>
+      <c r="Q108">
+        <v>2331</v>
+      </c>
+      <c r="R108">
+        <v>-37.700000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K109" t="s">
+        <v>48</v>
+      </c>
+      <c r="M109" s="5">
+        <v>7517</v>
+      </c>
+      <c r="N109" s="5">
+        <v>7646</v>
+      </c>
+      <c r="O109" s="5">
+        <v>8145</v>
+      </c>
+      <c r="P109" s="5">
+        <v>8069</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>7989</v>
+      </c>
+    </row>
+    <row r="110" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K110" t="s">
+        <v>49</v>
+      </c>
+      <c r="M110" s="5">
+        <v>1963</v>
+      </c>
+      <c r="N110" s="5">
+        <v>1975</v>
+      </c>
+      <c r="O110" t="s">
+        <v>83</v>
+      </c>
+      <c r="P110" s="5">
+        <v>2217</v>
+      </c>
+      <c r="Q110">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="111" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K111" t="s">
+        <v>51</v>
+      </c>
+      <c r="M111" s="5">
+        <v>10043</v>
+      </c>
+      <c r="N111" s="5">
+        <v>10032</v>
+      </c>
+      <c r="O111" s="5">
+        <v>9774</v>
+      </c>
+      <c r="P111" s="5">
+        <v>9316</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>9023</v>
+      </c>
+      <c r="R111">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="112" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K112" t="s">
+        <v>52</v>
+      </c>
+      <c r="M112" s="5">
+        <v>119471</v>
+      </c>
+      <c r="N112" s="5">
+        <v>122604</v>
+      </c>
+      <c r="O112" s="5">
+        <v>124526</v>
+      </c>
+      <c r="P112" s="5">
+        <v>126547</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>128677</v>
+      </c>
+    </row>
+    <row r="113" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K113" t="s">
+        <v>53</v>
+      </c>
+      <c r="M113" s="5">
+        <v>16200</v>
+      </c>
+      <c r="N113" s="5">
+        <v>16800</v>
+      </c>
+      <c r="O113" s="5">
+        <v>17000</v>
+      </c>
+      <c r="P113" s="5">
+        <v>17300</v>
+      </c>
+      <c r="Q113" s="5">
+        <v>18200</v>
+      </c>
+      <c r="R113">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="114" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K114" t="s">
+        <v>54</v>
+      </c>
+      <c r="M114" s="5">
+        <v>50731</v>
+      </c>
+      <c r="N114" s="5">
+        <v>52729</v>
+      </c>
+      <c r="O114">
+        <v>54170</v>
+      </c>
+      <c r="P114" s="5">
+        <v>54351</v>
+      </c>
+      <c r="Q114" s="5">
+        <v>54713</v>
+      </c>
+      <c r="R114">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="115" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K115" t="s">
+        <v>55</v>
+      </c>
+      <c r="M115" s="5">
+        <v>9078</v>
+      </c>
+      <c r="N115" s="5">
+        <v>8929</v>
+      </c>
+      <c r="O115" s="5">
+        <v>7855</v>
+      </c>
+      <c r="P115" s="5">
+        <v>8282</v>
+      </c>
+      <c r="Q115" s="5">
+        <v>8702</v>
+      </c>
+    </row>
+    <row r="116" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K116" t="s">
+        <v>56</v>
+      </c>
+      <c r="M116" s="5">
+        <v>2852</v>
+      </c>
+      <c r="N116" s="5">
+        <v>2905</v>
+      </c>
+      <c r="O116" s="5">
+        <v>2382</v>
+      </c>
+      <c r="P116" s="5">
+        <v>2502</v>
+      </c>
+      <c r="Q116" s="5">
+        <v>2122</v>
+      </c>
+      <c r="R116">
+        <v>-15.2</v>
+      </c>
+    </row>
+    <row r="117" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K117" t="s">
+        <v>57</v>
+      </c>
+      <c r="M117" s="5">
+        <v>60338</v>
+      </c>
+      <c r="N117" s="5">
+        <v>61537</v>
+      </c>
+      <c r="O117" s="5">
+        <v>60910</v>
+      </c>
+      <c r="P117" s="5">
+        <v>60998</v>
+      </c>
+      <c r="Q117" s="5">
+        <v>61509</v>
+      </c>
+      <c r="R117">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="118" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K118" t="s">
+        <v>58</v>
+      </c>
+      <c r="M118">
+        <v>14.378</v>
+      </c>
+      <c r="N118">
+        <v>14.914</v>
+      </c>
+      <c r="O118">
+        <v>13489</v>
+      </c>
+      <c r="P118">
+        <v>13594</v>
+      </c>
+      <c r="Q118">
+        <v>14.239000000000001</v>
+      </c>
+      <c r="R118">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="119" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K119" t="s">
+        <v>59</v>
+      </c>
+      <c r="M119" s="5">
+        <v>708581</v>
+      </c>
+      <c r="N119" s="5">
+        <v>720421</v>
+      </c>
+      <c r="O119" s="5">
+        <v>703803</v>
+      </c>
+      <c r="P119" s="5">
+        <v>713483</v>
+      </c>
+      <c r="Q119" s="5">
+        <v>720783</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="M120" s="11">
+        <v>657287</v>
+      </c>
+      <c r="N120" s="11">
+        <v>671340</v>
+      </c>
+      <c r="O120" s="11">
+        <v>655981</v>
+      </c>
+      <c r="P120" s="11">
+        <v>669375</v>
+      </c>
+      <c r="Q120" s="11">
+        <f>P120*Q119/P119</f>
+        <v>676223.70907926327</v>
+      </c>
+      <c r="T120" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2EA77-52D5-4C8F-A27F-EB40305A89E1}">
+  <dimension ref="B3:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2020</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2022</v>
+      </c>
+      <c r="H4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <f>15159336-2367147</f>
+        <v>12792189</v>
+      </c>
+      <c r="D5">
+        <f>13028948</f>
+        <v>13028948</v>
+      </c>
+      <c r="E5">
+        <v>9939418</v>
+      </c>
+      <c r="F5">
+        <v>9700095</v>
+      </c>
+      <c r="G5">
+        <v>9263509</v>
+      </c>
+      <c r="H5">
+        <v>10547716</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(G5:H5)</f>
+        <v>9905612.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2022</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <f>2058574-357325</f>
+        <v>1701249</v>
+      </c>
+      <c r="D8">
+        <v>1747471</v>
+      </c>
+      <c r="E8">
+        <v>1439375</v>
+      </c>
+      <c r="F8">
+        <v>1561961</v>
+      </c>
+      <c r="G8">
+        <v>1280235</v>
+      </c>
+      <c r="H8">
+        <v>1467001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <f>384850-53467</f>
+        <v>331383</v>
+      </c>
+      <c r="D9">
+        <v>333072</v>
+      </c>
+      <c r="E9">
+        <v>247616</v>
+      </c>
+      <c r="F9">
+        <f>289762</f>
+        <v>289762</v>
+      </c>
+      <c r="G9">
+        <f>298407</f>
+        <v>298407</v>
+      </c>
+      <c r="H9">
+        <f>346986</f>
+        <v>346986</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2021</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2022</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <f>SUM(594,1201,1491,4,35221)</f>
+        <v>38511</v>
+      </c>
+      <c r="D12">
+        <f>SUM(1448,1957,2579,11,28065)</f>
+        <v>34060</v>
+      </c>
+      <c r="E12">
+        <f>SUM(1715,2661,3105,6,20480)</f>
+        <v>27967</v>
+      </c>
+      <c r="F12">
+        <f>SUM(3083,3006,3021,1,20072)</f>
+        <v>29183</v>
+      </c>
+      <c r="G12">
+        <v>27308</v>
+      </c>
+      <c r="H12">
+        <v>32593</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://www.acea.auto/files/20230118_PCPR_2212_FINAL.pdf" xr:uid="{7ECAF9BB-B20E-4DE7-BEE6-34FA796E39B2}"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://www.acea.auto/files/Press_release_car_registrations_full_year_2023.pdf" xr:uid="{FE566B88-5947-4689-BDF7-2FEDD1BB2BD0}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.acea.auto/files/20220118_PRPC_2112_FINAL.pdf" xr:uid="{69C3DD2C-B62B-4F6B-AC90-EE79B49CC79C}"/>
+    <hyperlink ref="C4" r:id="rId4" display="https://www.acea.auto/files/20200116_PRPC_1912_FINAL.pdf" xr:uid="{7B300AE0-CF08-41D6-B7B8-235C39FF7A04}"/>
+    <hyperlink ref="D4" r:id="rId5" display="https://www.acea.auto/files/2021119_PRPC_2012_FINAL.pdf" xr:uid="{2B588F25-7765-4C5D-BDF7-C59961F91A4E}"/>
+    <hyperlink ref="G7:H7" r:id="rId6" display="https://www.acea.auto/files/Press_release_car_registrations_full_year_2023.pdf" xr:uid="{6D5DECC0-A117-4567-9431-7AEF77F52A32}"/>
+    <hyperlink ref="F7" r:id="rId7" display="https://www.acea.auto/files/20230125_PRCV_2212_FINAL.pdf" xr:uid="{EF2B36A2-4228-4247-81C6-1C9D099F8971}"/>
+    <hyperlink ref="E7" r:id="rId8" display="https://www.acea.auto/files/20220126_PRCV_2112_FINAL.pdf" xr:uid="{473B987F-EBBE-4423-90A2-73EFA93AA706}"/>
+    <hyperlink ref="D7" r:id="rId9" display="https://www.acea.auto/files/20210126_PRCV_2012_FINAL.pdf" xr:uid="{24AF7A94-523F-4E2D-AA23-52DBFC361D05}"/>
+    <hyperlink ref="C7" r:id="rId10" display="https://www.acea.auto/files/20200123_PRCV_1912_FINAL.pdf" xr:uid="{127227ED-405C-42F7-B89A-16E7DF1A2689}"/>
+    <hyperlink ref="H11" r:id="rId11" display="https://www.acea.auto/files/Press_release_commercial_vehicle_registrations_2023.pdf" xr:uid="{46B557FB-5725-4E63-9F97-3837EC2E667F}"/>
+    <hyperlink ref="G11" r:id="rId12" display="https://www.acea.auto/files/Press_release_commercial_vehicle_registrations_2023.pdf" xr:uid="{B4497C61-41C3-4D72-8767-063933CFA99B}"/>
+    <hyperlink ref="F11" r:id="rId13" display="https://www.acea.auto/files/ACEA_buses_by_fuel_type_full-year-2022.pdf" xr:uid="{A90CBE6B-28E1-4257-9D25-165CC99D45C5}"/>
+    <hyperlink ref="E11" r:id="rId14" display="https://www.acea.auto/files/Buses-by-fuel-type-full-year-2021.pdf" xr:uid="{FAAAD4F6-A61A-45BB-A02C-F0D70018057A}"/>
+    <hyperlink ref="D11" r:id="rId15" display="https://www.acea.auto/files/ACEA_buses_by_fuel_type_full-year_2020.pdf" xr:uid="{D47C207F-C433-46C8-BA5F-916103C74EA7}"/>
+    <hyperlink ref="C11" r:id="rId16" display="https://www.acea.auto/files/ACEA_buses_by_fuel_type_full-year_2019.pdf" xr:uid="{8EF9CE3B-FBC1-4815-B9A2-E0C84C8C73A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EDFF3C-4780-4740-AFE4-746A23223F49}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <f>'ACEA Sales'!C5/'ACEA Stock'!L29</f>
+        <v>5.3513070729990078E-2</v>
+      </c>
+      <c r="C4">
+        <f>'ACEA Sales'!D5/'ACEA Stock'!M29</f>
+        <v>5.3489407911602317E-2</v>
+      </c>
+      <c r="D4">
+        <f>'ACEA Sales'!E5/'ACEA Stock'!N29</f>
+        <v>4.0324092592718512E-2</v>
+      </c>
+      <c r="E4">
+        <f>'ACEA Sales'!F5/'ACEA Stock'!O29</f>
+        <v>3.8857139556321266E-2</v>
+      </c>
+      <c r="F4">
+        <f>'ACEA Sales'!G5/'ACEA Stock'!P29</f>
+        <v>3.6725304130200163E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <f>'ACEA Sales'!C12/'ACEA Stock'!M120</f>
+        <v>5.8590843877940689E-2</v>
+      </c>
+      <c r="C5">
+        <f>'ACEA Sales'!D12/'ACEA Stock'!N120</f>
+        <v>5.0734352191140107E-2</v>
+      </c>
+      <c r="D5">
+        <f>'ACEA Sales'!E12/'ACEA Stock'!O120</f>
+        <v>4.2633856773290693E-2</v>
+      </c>
+      <c r="E5">
+        <f>'ACEA Sales'!F12/'ACEA Stock'!P120</f>
+        <v>4.359738562091503E-2</v>
+      </c>
+      <c r="F5">
+        <f>'ACEA Sales'!G12/'ACEA Stock'!Q120</f>
+        <v>4.0383085705738106E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <f>'ACEA Sales'!C8/'ACEA Stock'!L60</f>
+        <v>6.5524789260406585E-2</v>
+      </c>
+      <c r="C6">
+        <f>'ACEA Sales'!D8/'ACEA Stock'!M60</f>
+        <v>6.5803513585610304E-2</v>
+      </c>
+      <c r="D6">
+        <f>'ACEA Sales'!E8/'ACEA Stock'!N60</f>
+        <v>5.3386125960732361E-2</v>
+      </c>
+      <c r="E6">
+        <f>'ACEA Sales'!F8/'ACEA Stock'!O60</f>
+        <v>5.6554760876554061E-2</v>
+      </c>
+      <c r="F6">
+        <f>'ACEA Sales'!G8/'ACEA Stock'!P60</f>
+        <v>4.5776587042183174E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <f>'ACEA Sales'!C9/'ACEA Stock'!M90</f>
+        <v>6.0404717788497909E-2</v>
+      </c>
+      <c r="C7">
+        <f>'ACEA Sales'!D9/'ACEA Stock'!N90</f>
+        <v>5.9126711508044286E-2</v>
+      </c>
+      <c r="D7">
+        <f>'ACEA Sales'!E9/'ACEA Stock'!O90</f>
+        <v>4.3831472858282323E-2</v>
+      </c>
+      <c r="E7">
+        <f>'ACEA Sales'!F9/'ACEA Stock'!P90</f>
+        <v>5.0326828603212623E-2</v>
+      </c>
+      <c r="F7">
+        <f>'ACEA Sales'!G9/'ACEA Stock'!Q90</f>
+        <v>5.0838049590362082E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -584,66 +5062,73 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <f>1/17</f>
-        <v>5.8823529411764705E-2</v>
+        <f>AVERAGE(calcs!$D4:$F4)</f>
+        <v>3.8635512093079978E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:H2" si="0">1/17</f>
-        <v>5.8823529411764705E-2</v>
+        <f>AVERAGE(calcs!$D4:$F4)</f>
+        <v>3.8635512093079978E-2</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <f>AVERAGE(calcs!$D4:$F4)</f>
+        <v>3.8635512093079978E-2</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <f>AVERAGE(calcs!$D4:$F4)</f>
+        <v>3.8635512093079978E-2</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <f>AVERAGE(calcs!$D4:$F4)</f>
+        <v>3.8635512093079978E-2</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <f>AVERAGE(calcs!$D4:$F4)</f>
+        <v>3.8635512093079978E-2</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f>AVERAGE(calcs!$D4:$F4)</f>
+        <v>3.8635512093079978E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.09</v>
+        <f>AVERAGE(calcs!$D5:$F5)</f>
+        <v>4.2204776033314607E-2</v>
       </c>
       <c r="C3">
-        <v>0.09</v>
+        <f>AVERAGE(calcs!$D5:$F5)</f>
+        <v>4.2204776033314607E-2</v>
       </c>
       <c r="D3">
-        <v>0.09</v>
+        <f>AVERAGE(calcs!$D5:$F5)</f>
+        <v>4.2204776033314607E-2</v>
       </c>
       <c r="E3">
-        <v>0.09</v>
+        <f>AVERAGE(calcs!$D5:$F5)</f>
+        <v>4.2204776033314607E-2</v>
       </c>
       <c r="F3">
-        <v>0.09</v>
+        <f>AVERAGE(calcs!$D5:$F5)</f>
+        <v>4.2204776033314607E-2</v>
       </c>
       <c r="G3">
-        <v>0.09</v>
+        <f>AVERAGE(calcs!$D5:$F5)</f>
+        <v>4.2204776033314607E-2</v>
       </c>
       <c r="H3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f>AVERAGE(calcs!$D5:$F5)</f>
+        <v>4.2204776033314607E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -669,7 +5154,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -695,7 +5180,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -721,7 +5206,7 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -752,7 +5237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -760,16 +5245,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -795,59 +5280,73 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$D6:$F6)</f>
+        <v>5.190582462648987E-2</v>
       </c>
       <c r="C2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$D6:$F6)</f>
+        <v>5.190582462648987E-2</v>
       </c>
       <c r="D2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$D6:$F6)</f>
+        <v>5.190582462648987E-2</v>
       </c>
       <c r="E2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$D6:$F6)</f>
+        <v>5.190582462648987E-2</v>
       </c>
       <c r="F2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$D6:$F6)</f>
+        <v>5.190582462648987E-2</v>
       </c>
       <c r="G2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$D6:$F6)</f>
+        <v>5.190582462648987E-2</v>
       </c>
       <c r="H2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f>AVERAGE(calcs!$D6:$F6)</f>
+        <v>5.190582462648987E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$E7:$F7)</f>
+        <v>5.0582439096787349E-2</v>
       </c>
       <c r="C3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$E7:$F7)</f>
+        <v>5.0582439096787349E-2</v>
       </c>
       <c r="D3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$E7:$F7)</f>
+        <v>5.0582439096787349E-2</v>
       </c>
       <c r="E3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$E7:$F7)</f>
+        <v>5.0582439096787349E-2</v>
       </c>
       <c r="F3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$E7:$F7)</f>
+        <v>5.0582439096787349E-2</v>
       </c>
       <c r="G3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$E7:$F7)</f>
+        <v>5.0582439096787349E-2</v>
       </c>
       <c r="H3">
-        <v>5.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f>AVERAGE(calcs!$E7:$F7)</f>
+        <v>5.0582439096787349E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -873,7 +5372,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -899,7 +5398,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -925,7 +5424,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD689495-C175-4B32-BCE1-FCC62C79728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63D46BD-90B1-42A5-B112-0F7E5FF4282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29745" yWindow="1425" windowWidth="27375" windowHeight="15225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61395" yWindow="2625" windowWidth="22140" windowHeight="13230" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>Using IDEES data to better align with SYVbT</t>
+  </si>
+  <si>
+    <t>2024 (est.)</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -401,6 +404,7 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4672,23 +4676,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2EA77-52D5-4C8F-A27F-EB40305A89E1}">
-  <dimension ref="B3:J12"/>
+  <dimension ref="B3:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C4" s="7">
         <v>2018</v>
       </c>
@@ -4707,8 +4712,11 @@
       <c r="H4">
         <v>2023</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>64</v>
       </c>
@@ -4732,12 +4740,16 @@
       <c r="H5">
         <v>10547716</v>
       </c>
-      <c r="J5">
+      <c r="I5" s="13">
+        <f>H5*1.039</f>
+        <v>10959076.923999999</v>
+      </c>
+      <c r="K5">
         <f>AVERAGE(G5:H5)</f>
         <v>9905612.5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C7" s="7">
         <v>2018</v>
       </c>
@@ -4757,7 +4769,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -4781,7 +4793,7 @@
         <v>1467001</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -4808,7 +4820,7 @@
         <v>346986</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C11" s="7">
         <v>2018</v>
       </c>
@@ -4828,7 +4840,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>84</v>
       </c>
@@ -4873,6 +4885,7 @@
     <hyperlink ref="E11" r:id="rId14" display="https://www.acea.auto/files/Buses-by-fuel-type-full-year-2021.pdf" xr:uid="{FAAAD4F6-A61A-45BB-A02C-F0D70018057A}"/>
     <hyperlink ref="D11" r:id="rId15" display="https://www.acea.auto/files/ACEA_buses_by_fuel_type_full-year_2020.pdf" xr:uid="{D47C207F-C433-46C8-BA5F-916103C74EA7}"/>
     <hyperlink ref="C11" r:id="rId16" display="https://www.acea.auto/files/ACEA_buses_by_fuel_type_full-year_2019.pdf" xr:uid="{8EF9CE3B-FBC1-4815-B9A2-E0C84C8C73A0}"/>
+    <hyperlink ref="I4" r:id="rId17" xr:uid="{D948A403-B1EF-4144-B477-F70925E2DDBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4883,7 +4896,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5027,7 +5040,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5067,32 +5080,32 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(calcs!$D4:$F4)</f>
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="C2">
-        <f>AVERAGE(calcs!$D4:$F4)</f>
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="D2">
-        <f>AVERAGE(calcs!$D4:$F4)</f>
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(calcs!$D4:$F4)</f>
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(calcs!$D4:$F4)</f>
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="G2">
-        <f>AVERAGE(calcs!$D4:$F4)</f>
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="H2">
-        <f>AVERAGE(calcs!$D4:$F4)</f>
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63D46BD-90B1-42A5-B112-0F7E5FF4282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765C8EF2-206B-4F6F-BB88-37330C2B70C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61395" yWindow="2625" windowWidth="22140" windowHeight="13230" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58680" yWindow="1080" windowWidth="22140" windowHeight="13245" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E0A954-A9C2-4E7B-AF38-EE74577DFD4A}">
   <dimension ref="A1:T120"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R121" sqref="R121"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T103" sqref="T103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4678,8 +4678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2EA77-52D5-4C8F-A27F-EB40305A89E1}">
   <dimension ref="B3:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4791,6 +4791,10 @@
       </c>
       <c r="H8">
         <v>1467001</v>
+      </c>
+      <c r="I8">
+        <f>H8*1.15</f>
+        <v>1687051.15</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
@@ -4896,7 +4900,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5257,8 +5261,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5298,32 +5302,32 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(calcs!$D6:$F6)</f>
-        <v>5.190582462648987E-2</v>
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
       </c>
       <c r="C2">
-        <f>AVERAGE(calcs!$D6:$F6)</f>
-        <v>5.190582462648987E-2</v>
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
       </c>
       <c r="D2">
-        <f>AVERAGE(calcs!$D6:$F6)</f>
-        <v>5.190582462648987E-2</v>
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(calcs!$D6:$F6)</f>
-        <v>5.190582462648987E-2</v>
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(calcs!$D6:$F6)</f>
-        <v>5.190582462648987E-2</v>
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
       </c>
       <c r="G2">
-        <f>AVERAGE(calcs!$D6:$F6)</f>
-        <v>5.190582462648987E-2</v>
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
       </c>
       <c r="H2">
-        <f>AVERAGE(calcs!$D6:$F6)</f>
-        <v>5.190582462648987E-2</v>
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765C8EF2-206B-4F6F-BB88-37330C2B70C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E0AA0-8953-4169-829B-560A9B16A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58680" yWindow="1080" windowWidth="22140" windowHeight="13245" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61650" yWindow="3240" windowWidth="22140" windowHeight="13245" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E0A954-A9C2-4E7B-AF38-EE74577DFD4A}">
   <dimension ref="A1:T120"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T103" sqref="T103"/>
+    <sheetView topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90:T90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4679,7 +4679,7 @@
   <dimension ref="B3:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4768,6 +4768,9 @@
       <c r="H7" s="7">
         <v>2023</v>
       </c>
+      <c r="I7" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
@@ -4792,7 +4795,7 @@
       <c r="H8">
         <v>1467001</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="13">
         <f>H8*1.15</f>
         <v>1687051.15</v>
       </c>
@@ -4823,6 +4826,10 @@
         <f>346986</f>
         <v>346986</v>
       </c>
+      <c r="I9" s="13">
+        <f>H9*1.03</f>
+        <v>357395.58</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C11" s="7">
@@ -4869,6 +4876,10 @@
       </c>
       <c r="H12">
         <v>32593</v>
+      </c>
+      <c r="I12" s="13">
+        <f>H12*1.286</f>
+        <v>41914.597999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4890,6 +4901,7 @@
     <hyperlink ref="D11" r:id="rId15" display="https://www.acea.auto/files/ACEA_buses_by_fuel_type_full-year_2020.pdf" xr:uid="{D47C207F-C433-46C8-BA5F-916103C74EA7}"/>
     <hyperlink ref="C11" r:id="rId16" display="https://www.acea.auto/files/ACEA_buses_by_fuel_type_full-year_2019.pdf" xr:uid="{8EF9CE3B-FBC1-4815-B9A2-E0C84C8C73A0}"/>
     <hyperlink ref="I4" r:id="rId17" xr:uid="{D948A403-B1EF-4144-B477-F70925E2DDBE}"/>
+    <hyperlink ref="I7" r:id="rId18" xr:uid="{F94FD9AA-C177-4230-8C7D-7ACE3C8923B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4900,7 +4912,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5026,7 +5038,7 @@
         <v>5.0326828603212623E-2</v>
       </c>
       <c r="F7">
-        <f>'ACEA Sales'!G9/'ACEA Stock'!Q90</f>
+        <f>'ACEA Sales'!G9/'ACEA Stock'!$Q90</f>
         <v>5.0838049590362082E-2</v>
       </c>
     </row>
@@ -5044,7 +5056,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5262,7 +5274,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5335,32 +5347,32 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <f>AVERAGE(calcs!$E7:$F7)</f>
-        <v>5.0582439096787349E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="C3">
-        <f>AVERAGE(calcs!$E7:$F7)</f>
-        <v>5.0582439096787349E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="D3">
-        <f>AVERAGE(calcs!$E7:$F7)</f>
-        <v>5.0582439096787349E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(calcs!$E7:$F7)</f>
-        <v>5.0582439096787349E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="F3">
-        <f>AVERAGE(calcs!$E7:$F7)</f>
-        <v>5.0582439096787349E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="G3">
-        <f>AVERAGE(calcs!$E7:$F7)</f>
-        <v>5.0582439096787349E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="H3">
-        <f>AVERAGE(calcs!$E7:$F7)</f>
-        <v>5.0582439096787349E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E0AA0-8953-4169-829B-560A9B16A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F585D8E-7BAB-4751-B497-048EBAF00B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61650" yWindow="3240" windowWidth="22140" windowHeight="13245" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="2130" windowWidth="22140" windowHeight="13245" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +390,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -405,6 +411,7 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4679,7 +4686,7 @@
   <dimension ref="B3:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5055,224 +5062,6 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="8" width="14.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <f>AVERAGE(calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
-      </c>
-      <c r="C2">
-        <f>AVERAGE(calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
-      </c>
-      <c r="D2">
-        <f>AVERAGE(calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
-      </c>
-      <c r="F2">
-        <f>AVERAGE(calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
-      </c>
-      <c r="G2">
-        <f>AVERAGE(calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
-      </c>
-      <c r="H2">
-        <f>AVERAGE(calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <f>AVERAGE(calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
-      </c>
-      <c r="C3">
-        <f>AVERAGE(calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
-      </c>
-      <c r="D3">
-        <f>AVERAGE(calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
-      </c>
-      <c r="E3">
-        <f>AVERAGE(calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
-      </c>
-      <c r="F3">
-        <f>AVERAGE(calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
-      </c>
-      <c r="G3">
-        <f>AVERAGE(calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
-      </c>
-      <c r="H3">
-        <f>AVERAGE(calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="C4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="E4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="F4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="G4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="H4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="C6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="F6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="G6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="H6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="C7">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="D7">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="E7">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="F7">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="G7">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="H7">
-        <v>5.8500000000000003E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
@@ -5314,6 +5103,217 @@
         <v>12</v>
       </c>
       <c r="B2">
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
         <f>AVERAGE(calcs!$B6:$F6)</f>
         <v>5.7409155345097294E-2</v>
       </c>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6E853D-967A-4A7D-929E-2E57C99CC705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F585D8E-7BAB-4751-B497-048EBAF00B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="2130" windowWidth="22140" windowHeight="13245" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
-    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
+    <sheet name="ACEA Stock" sheetId="5" r:id="rId2"/>
+    <sheet name="ACEA Sales" sheetId="6" r:id="rId3"/>
+    <sheet name="calcs" sheetId="7" r:id="rId4"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId5"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -111,13 +114,205 @@
   </si>
   <si>
     <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>% change</t>
+  </si>
+  <si>
+    <t>22/21</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>5,31 5,875</t>
+  </si>
+  <si>
+    <t>+1 .6</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>+1 .9</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>+1 .2</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>+1 .0</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>+1 9</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>EUROPEAN UNION</t>
+  </si>
+  <si>
+    <t>CARS ON ROAD</t>
+  </si>
+  <si>
+    <t>https://www.acea.auto/files/ACEA-Report-Vehicles-on-European-roads-.pdf</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Passenger Cars</t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>vans</t>
+  </si>
+  <si>
+    <t>trucks</t>
+  </si>
+  <si>
+    <t>Buses</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>Vans</t>
+  </si>
+  <si>
+    <t>inland</t>
+  </si>
+  <si>
+    <t>+1 _ 1</t>
+  </si>
+  <si>
+    <t>8/1,286</t>
+  </si>
+  <si>
+    <t>+0 g</t>
+  </si>
+  <si>
+    <t>137,1 52</t>
+  </si>
+  <si>
+    <t>Czech ia</t>
+  </si>
+  <si>
+    <t>41 n 56</t>
+  </si>
+  <si>
+    <t>+1 _5</t>
+  </si>
+  <si>
+    <t>+2./</t>
+  </si>
+  <si>
+    <t>1 58,108</t>
+  </si>
+  <si>
+    <t>1,1 50,493</t>
+  </si>
+  <si>
+    <t>+0.b</t>
+  </si>
+  <si>
+    <t>-1 3</t>
+  </si>
+  <si>
+    <t>2.12/</t>
+  </si>
+  <si>
+    <t>buses</t>
+  </si>
+  <si>
+    <t>Share of vehicles that are new this year</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/road_eqs_lorroa__custom_12791916/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>Using eurostat data to align better with SYVbT</t>
+  </si>
+  <si>
+    <t>Using IDEES data to better align with SYVbT</t>
+  </si>
+  <si>
+    <t>2024 (est.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +328,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,10 +384,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -166,9 +402,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{93B20D57-976F-49E0-B368-38EB2E176229}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{AEEAC241-4197-4196-A816-A8CB3DCDA3BC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -181,6 +430,1346 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calcs!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Passenger Cars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>calcs!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>calcs!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.3513070729990078E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3489407911602317E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0324092592718512E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8857139556321266E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6725304130200163E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B9E-416E-AC16-2425DADF35E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calcs!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>calcs!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>calcs!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.8590843877940689E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0734352191140107E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2633856773290693E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.359738562091503E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0383085705738106E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B9E-416E-AC16-2425DADF35E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calcs!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>calcs!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>calcs!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5524789260406585E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5803513585610304E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3386125960732361E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6554760876554061E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5776587042183174E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B9E-416E-AC16-2425DADF35E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calcs!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trucks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>calcs!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>calcs!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0404717788497909E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9126711508044286E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3831472858282323E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0326828603212623E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0838049590362082E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3B9E-416E-AC16-2425DADF35E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1086407040"/>
+        <c:axId val="1086406560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1086407040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1086406560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1086406560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1086407040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18143C1-7B86-8A3E-D5C7-06E119FDFB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="180976"/>
+          <a:ext cx="4410075" cy="5083912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292336</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4152E227-27E8-8B02-FA82-B9366CC1A504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5429250"/>
+          <a:ext cx="4597636" cy="5239019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295511</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>16146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E382FE5E-53C2-6FC3-4CC8-5D22F323DC44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10858500"/>
+          <a:ext cx="4597636" cy="5264421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266935</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>139968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F18A8B8-984D-5161-189C-BC915DA333A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16287750"/>
+          <a:ext cx="4572235" cy="5207268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DAD4D34-5E6F-9000-2987-850015004201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,7 +2062,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,6 +2131,2931 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E0A954-A9C2-4E7B-AF38-EE74577DFD4A}">
+  <dimension ref="A1:T120"/>
+  <sheetViews>
+    <sheetView topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90:T90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="10.90625" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>2018</v>
+      </c>
+      <c r="M3">
+        <v>2019</v>
+      </c>
+      <c r="N3">
+        <v>2020</v>
+      </c>
+      <c r="O3">
+        <v>2021</v>
+      </c>
+      <c r="P3">
+        <v>2022</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4978852</v>
+      </c>
+      <c r="M4" s="5">
+        <v>5039548</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5091827</v>
+      </c>
+      <c r="O4" s="5">
+        <v>5133836</v>
+      </c>
+      <c r="P4" s="5">
+        <v>5150890</v>
+      </c>
+      <c r="Q4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5782684</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5813771</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5827195</v>
+      </c>
+      <c r="O5" s="5">
+        <v>5851682</v>
+      </c>
+      <c r="P5" s="5">
+        <v>5877949</v>
+      </c>
+      <c r="Q5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1665391</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1728911</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1733727</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1794352</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1836016</v>
+      </c>
+      <c r="Q6">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="5">
+        <v>550695</v>
+      </c>
+      <c r="M7" s="5">
+        <v>572501</v>
+      </c>
+      <c r="N7" s="5">
+        <v>578158</v>
+      </c>
+      <c r="O7" s="5">
+        <v>592156</v>
+      </c>
+      <c r="P7" s="5">
+        <v>601131</v>
+      </c>
+      <c r="Q7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="5">
+        <v>5802521</v>
+      </c>
+      <c r="M8" s="5">
+        <v>5989538</v>
+      </c>
+      <c r="N8" s="5">
+        <v>6129874</v>
+      </c>
+      <c r="O8" s="5">
+        <v>6293125</v>
+      </c>
+      <c r="P8" s="5">
+        <v>6425417</v>
+      </c>
+      <c r="Q8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2593591</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2650227</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2720271</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2781860</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2794055</v>
+      </c>
+      <c r="Q9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="5">
+        <v>746464</v>
+      </c>
+      <c r="M10" s="5">
+        <v>794926</v>
+      </c>
+      <c r="N10" s="5">
+        <v>808689</v>
+      </c>
+      <c r="O10" s="5">
+        <v>825936</v>
+      </c>
+      <c r="P10" s="5">
+        <v>849294</v>
+      </c>
+      <c r="Q10">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2696.3339999999998</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2720307</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2748448</v>
+      </c>
+      <c r="O11" s="5">
+        <v>2755349</v>
+      </c>
+      <c r="P11" s="6">
+        <v>2740.393</v>
+      </c>
+      <c r="Q11">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="5">
+        <v>38229305</v>
+      </c>
+      <c r="M12" s="5">
+        <v>38421218</v>
+      </c>
+      <c r="N12" s="5">
+        <v>38467643</v>
+      </c>
+      <c r="O12" s="5">
+        <v>38814659</v>
+      </c>
+      <c r="P12" s="5">
+        <v>38856492</v>
+      </c>
+      <c r="Q12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="5">
+        <v>47095784</v>
+      </c>
+      <c r="M13" s="5">
+        <v>47715977</v>
+      </c>
+      <c r="N13" s="5">
+        <v>48248584</v>
+      </c>
+      <c r="O13" s="5">
+        <v>48540878</v>
+      </c>
+      <c r="P13" s="5">
+        <v>48763036</v>
+      </c>
+      <c r="Q13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="5">
+        <v>5164183</v>
+      </c>
+      <c r="M14" s="5">
+        <v>5247295</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="5">
+        <v>5408149</v>
+      </c>
+      <c r="P14" s="5">
+        <v>5495927</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3638374</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3809670</v>
+      </c>
+      <c r="N15" s="5">
+        <v>3918923</v>
+      </c>
+      <c r="O15" s="5">
+        <v>4017574</v>
+      </c>
+      <c r="P15">
+        <v>4091975</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2104060</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2172098</v>
+      </c>
+      <c r="N16" s="5">
+        <v>2215127</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2266479</v>
+      </c>
+      <c r="P16" s="5">
+        <v>2292748</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="5">
+        <v>39018170</v>
+      </c>
+      <c r="M17" s="5">
+        <v>39545232</v>
+      </c>
+      <c r="N17" s="5">
+        <v>39717874</v>
+      </c>
+      <c r="O17" s="5">
+        <v>39822723</v>
+      </c>
+      <c r="P17" s="5">
+        <v>40213061</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18">
+        <v>707.55899999999997</v>
+      </c>
+      <c r="M18" s="5">
+        <v>726501</v>
+      </c>
+      <c r="N18" s="5">
+        <v>736953</v>
+      </c>
+      <c r="O18" s="5">
+        <v>757821</v>
+      </c>
+      <c r="P18" s="5">
+        <v>769345</v>
+      </c>
+      <c r="Q18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1238119</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1264084</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1285743</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1326246</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1347548</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="5">
+        <v>415128</v>
+      </c>
+      <c r="M20" s="5">
+        <v>426346</v>
+      </c>
+      <c r="N20" s="5">
+        <v>433183</v>
+      </c>
+      <c r="O20" s="5">
+        <v>439919</v>
+      </c>
+      <c r="P20" s="5">
+        <v>448454</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="5">
+        <v>8787283</v>
+      </c>
+      <c r="M21" s="5">
+        <v>8938572</v>
+      </c>
+      <c r="N21" s="5">
+        <v>9049959</v>
+      </c>
+      <c r="O21" s="5">
+        <v>9142277</v>
+      </c>
+      <c r="P21" s="5">
+        <v>9233107</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22">
+        <v>23429016</v>
+      </c>
+      <c r="M22" s="5">
+        <v>24360166</v>
+      </c>
+      <c r="N22" s="5">
+        <v>25113862</v>
+      </c>
+      <c r="O22" s="5">
+        <v>25869804</v>
+      </c>
+      <c r="P22" s="5">
+        <v>26457659</v>
+      </c>
+      <c r="Q22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="5">
+        <v>5015000</v>
+      </c>
+      <c r="M23" s="5">
+        <v>5205000</v>
+      </c>
+      <c r="N23" s="5">
+        <v>5300000</v>
+      </c>
+      <c r="O23" s="5">
+        <v>5410000</v>
+      </c>
+      <c r="P23" s="5">
+        <v>5560000</v>
+      </c>
+      <c r="Q23">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="24" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="5">
+        <v>6450750</v>
+      </c>
+      <c r="M24" s="5">
+        <v>6901236</v>
+      </c>
+      <c r="N24" s="5">
+        <v>7274728</v>
+      </c>
+      <c r="O24" s="5">
+        <v>7611039</v>
+      </c>
+      <c r="P24" s="5">
+        <v>7865186</v>
+      </c>
+      <c r="Q24">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="6">
+        <v>2326.7869999999998</v>
+      </c>
+      <c r="M25" s="5">
+        <v>2391355</v>
+      </c>
+      <c r="N25" s="5">
+        <v>2444478</v>
+      </c>
+      <c r="O25" s="5">
+        <v>2645785</v>
+      </c>
+      <c r="P25" s="5">
+        <v>2721252</v>
+      </c>
+      <c r="Q25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="26" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1220814</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1249364</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1253984</v>
+      </c>
+      <c r="O26" s="5">
+        <v>1202547</v>
+      </c>
+      <c r="P26" s="5">
+        <v>1221702</v>
+      </c>
+      <c r="Q26">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="27" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="5">
+        <v>24520287</v>
+      </c>
+      <c r="M27" s="5">
+        <v>25008216</v>
+      </c>
+      <c r="N27" s="5">
+        <v>25129152</v>
+      </c>
+      <c r="O27" s="5">
+        <v>25343873</v>
+      </c>
+      <c r="P27" s="5">
+        <v>25644595</v>
+      </c>
+      <c r="Q27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="5">
+        <v>4870783</v>
+      </c>
+      <c r="M28" s="6">
+        <v>4887.9040000000005</v>
+      </c>
+      <c r="N28" s="5">
+        <v>4944067</v>
+      </c>
+      <c r="O28" s="5">
+        <v>4986750</v>
+      </c>
+      <c r="P28" s="5">
+        <v>4980543</v>
+      </c>
+      <c r="Q28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="5">
+        <v>239047934</v>
+      </c>
+      <c r="M29" s="5">
+        <v>243579963</v>
+      </c>
+      <c r="N29" s="5">
+        <v>246488324</v>
+      </c>
+      <c r="O29" s="5">
+        <v>249634819</v>
+      </c>
+      <c r="P29" s="5">
+        <v>252237775</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="Q31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>2018</v>
+      </c>
+      <c r="M32">
+        <v>2019</v>
+      </c>
+      <c r="N32">
+        <v>2020</v>
+      </c>
+      <c r="O32">
+        <v>2021</v>
+      </c>
+      <c r="P32">
+        <v>2022</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="5">
+        <v>422745</v>
+      </c>
+      <c r="M33" s="5">
+        <v>440582</v>
+      </c>
+      <c r="N33" s="5">
+        <v>458253</v>
+      </c>
+      <c r="O33" s="5">
+        <v>493387</v>
+      </c>
+      <c r="P33" s="5">
+        <v>498325</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34">
+        <v>769679</v>
+      </c>
+      <c r="M34">
+        <v>798942</v>
+      </c>
+      <c r="N34" s="5">
+        <v>829277</v>
+      </c>
+      <c r="O34" s="5">
+        <v>861148</v>
+      </c>
+      <c r="P34" s="5">
+        <v>868994</v>
+      </c>
+      <c r="Q34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="Q35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="36" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="5">
+        <v>135054</v>
+      </c>
+      <c r="M36" s="5">
+        <v>145750</v>
+      </c>
+      <c r="N36" s="5">
+        <v>152923</v>
+      </c>
+      <c r="O36" s="5">
+        <v>162644</v>
+      </c>
+      <c r="P36" s="5">
+        <v>169976</v>
+      </c>
+    </row>
+    <row r="37" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="5">
+        <v>98533</v>
+      </c>
+      <c r="M37" s="5">
+        <v>101528</v>
+      </c>
+      <c r="N37">
+        <v>102951</v>
+      </c>
+      <c r="O37" s="5">
+        <v>104216</v>
+      </c>
+      <c r="P37">
+        <v>107.07</v>
+      </c>
+      <c r="Q37">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="38" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38">
+        <v>574.72199999999998</v>
+      </c>
+      <c r="M38">
+        <v>587.18600000000004</v>
+      </c>
+      <c r="N38" s="5">
+        <v>596481</v>
+      </c>
+      <c r="O38" s="5">
+        <v>610405</v>
+      </c>
+      <c r="P38" s="5">
+        <v>620192</v>
+      </c>
+      <c r="Q38">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="39" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="5">
+        <v>389339</v>
+      </c>
+      <c r="M39" s="5">
+        <v>379993</v>
+      </c>
+      <c r="N39" s="5">
+        <v>376236</v>
+      </c>
+      <c r="O39" s="5">
+        <v>373267</v>
+      </c>
+      <c r="P39" s="5">
+        <v>364646</v>
+      </c>
+      <c r="Q39">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="5">
+        <v>83307</v>
+      </c>
+      <c r="M40" s="5">
+        <v>91266</v>
+      </c>
+      <c r="N40" s="5">
+        <v>95246</v>
+      </c>
+      <c r="O40">
+        <v>99094</v>
+      </c>
+      <c r="P40">
+        <v>103037</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L41" s="5">
+        <v>325656</v>
+      </c>
+      <c r="M41" s="5">
+        <v>330671</v>
+      </c>
+      <c r="N41" s="5">
+        <v>338389</v>
+      </c>
+      <c r="O41" s="5">
+        <v>343927</v>
+      </c>
+      <c r="P41" s="5">
+        <v>343715</v>
+      </c>
+      <c r="Q41">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="5">
+        <v>6308971</v>
+      </c>
+      <c r="M42" s="5">
+        <v>6271876</v>
+      </c>
+      <c r="N42" s="5">
+        <v>6262451</v>
+      </c>
+      <c r="O42" s="5">
+        <v>6384963</v>
+      </c>
+      <c r="P42" s="5">
+        <v>6384074</v>
+      </c>
+      <c r="Q42">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="5">
+        <v>2724783</v>
+      </c>
+      <c r="M43" s="5">
+        <v>2856676</v>
+      </c>
+      <c r="N43" s="5">
+        <v>2999416</v>
+      </c>
+      <c r="O43" s="5">
+        <v>3141643</v>
+      </c>
+      <c r="P43" s="5">
+        <v>3222706</v>
+      </c>
+      <c r="Q43">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="44" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="5">
+        <v>889638</v>
+      </c>
+      <c r="M44" s="5">
+        <v>906798</v>
+      </c>
+      <c r="N44" s="5">
+        <v>921776</v>
+      </c>
+      <c r="O44" s="5">
+        <v>944308</v>
+      </c>
+      <c r="P44" s="5">
+        <v>955997</v>
+      </c>
+      <c r="Q44">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K45" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="5">
+        <v>446647</v>
+      </c>
+      <c r="M45" s="5">
+        <v>470454</v>
+      </c>
+      <c r="N45" s="5">
+        <v>485582</v>
+      </c>
+      <c r="O45" s="5">
+        <v>501553</v>
+      </c>
+      <c r="P45" s="5">
+        <v>510754</v>
+      </c>
+      <c r="Q45">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="46" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="5">
+        <v>380883</v>
+      </c>
+      <c r="M46" s="5">
+        <v>395379</v>
+      </c>
+      <c r="N46" s="5">
+        <v>397702</v>
+      </c>
+      <c r="O46" s="5">
+        <v>404521</v>
+      </c>
+      <c r="P46" s="5">
+        <v>409453</v>
+      </c>
+      <c r="Q46">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K47" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47" s="5">
+        <v>4108520</v>
+      </c>
+      <c r="M47" s="5">
+        <v>4172982</v>
+      </c>
+      <c r="N47" s="5">
+        <v>4260610</v>
+      </c>
+      <c r="O47" s="5">
+        <v>4318840</v>
+      </c>
+      <c r="P47" s="5">
+        <v>4403430</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48">
+        <v>57.612000000000002</v>
+      </c>
+      <c r="M48" s="5">
+        <v>59456</v>
+      </c>
+      <c r="N48" s="5">
+        <v>60707</v>
+      </c>
+      <c r="O48" s="5">
+        <v>63177</v>
+      </c>
+      <c r="P48" s="5">
+        <v>65353</v>
+      </c>
+      <c r="Q48">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="49" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L49" s="5">
+        <v>49576</v>
+      </c>
+      <c r="M49" s="5">
+        <v>50628</v>
+      </c>
+      <c r="N49">
+        <v>52799</v>
+      </c>
+      <c r="O49" s="5">
+        <v>56012</v>
+      </c>
+      <c r="P49" s="5">
+        <v>58518</v>
+      </c>
+      <c r="Q49">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K50" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" s="5">
+        <v>36603</v>
+      </c>
+      <c r="M50" s="5">
+        <v>38547</v>
+      </c>
+      <c r="N50" s="5">
+        <v>39006</v>
+      </c>
+      <c r="O50" s="5">
+        <v>40872</v>
+      </c>
+      <c r="P50" s="5">
+        <v>42417</v>
+      </c>
+      <c r="Q50">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="51" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K51" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="5">
+        <v>995796</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1021225</v>
+      </c>
+      <c r="N51" s="5">
+        <v>1031010</v>
+      </c>
+      <c r="O51" s="5">
+        <v>1057084</v>
+      </c>
+      <c r="P51" s="5">
+        <v>1082829</v>
+      </c>
+      <c r="Q51">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="52" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K52" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="5">
+        <v>2649198</v>
+      </c>
+      <c r="M52" s="5">
+        <v>2733004</v>
+      </c>
+      <c r="N52" s="5">
+        <v>2814490</v>
+      </c>
+      <c r="O52" s="5">
+        <v>2905731</v>
+      </c>
+      <c r="P52" s="5">
+        <v>2974632</v>
+      </c>
+      <c r="Q52">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="53" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K53" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1120000</v>
+      </c>
+      <c r="M53" s="5">
+        <v>1135000</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1140000</v>
+      </c>
+      <c r="O53" s="5">
+        <v>1150000</v>
+      </c>
+      <c r="P53" s="5">
+        <v>1163000</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K54" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" s="5">
+        <v>758037</v>
+      </c>
+      <c r="M54" t="s">
+        <v>72</v>
+      </c>
+      <c r="N54" s="5">
+        <v>850998</v>
+      </c>
+      <c r="O54" s="5">
+        <v>842847</v>
+      </c>
+      <c r="P54" s="5">
+        <v>886802</v>
+      </c>
+      <c r="Q54">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="55" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K55" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="5">
+        <v>259629</v>
+      </c>
+      <c r="M55" s="5">
+        <v>263913</v>
+      </c>
+      <c r="N55" s="5">
+        <v>268000</v>
+      </c>
+      <c r="O55" s="5">
+        <v>285860</v>
+      </c>
+      <c r="P55" s="5">
+        <v>292116</v>
+      </c>
+      <c r="Q55">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K56" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" s="5">
+        <v>83718</v>
+      </c>
+      <c r="M56" s="5">
+        <v>88361</v>
+      </c>
+      <c r="N56" s="5">
+        <v>91331</v>
+      </c>
+      <c r="O56">
+        <v>94850</v>
+      </c>
+      <c r="P56" s="5">
+        <v>98531</v>
+      </c>
+      <c r="Q56">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="57" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K57" t="s">
+        <v>57</v>
+      </c>
+      <c r="L57" s="5">
+        <v>3665518</v>
+      </c>
+      <c r="M57" s="5">
+        <v>3786536</v>
+      </c>
+      <c r="N57" s="5">
+        <v>3828504</v>
+      </c>
+      <c r="O57" s="5">
+        <v>3898159</v>
+      </c>
+      <c r="P57">
+        <v>3955750</v>
+      </c>
+      <c r="Q57">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K58" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58">
+        <v>572.07500000000005</v>
+      </c>
+      <c r="M58">
+        <v>585091</v>
+      </c>
+      <c r="N58">
+        <v>595.58000000000004</v>
+      </c>
+      <c r="O58">
+        <v>605668</v>
+      </c>
+      <c r="P58">
+        <v>608.87099999999998</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K59" t="s">
+        <v>59</v>
+      </c>
+      <c r="L59" s="5">
+        <v>27906239</v>
+      </c>
+      <c r="M59" s="5">
+        <v>28523130</v>
+      </c>
+      <c r="N59" s="5">
+        <v>29049728</v>
+      </c>
+      <c r="O59" s="5">
+        <v>29744175</v>
+      </c>
+      <c r="P59" s="5">
+        <v>30191188</v>
+      </c>
+      <c r="Q59">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K60" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L60" s="10">
+        <v>25963441</v>
+      </c>
+      <c r="M60" s="10">
+        <v>26555892</v>
+      </c>
+      <c r="N60" s="10">
+        <v>26961593</v>
+      </c>
+      <c r="O60" s="10">
+        <v>27618559</v>
+      </c>
+      <c r="P60" s="10">
+        <v>27967026</v>
+      </c>
+      <c r="T60" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="R61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="M63">
+        <v>2018</v>
+      </c>
+      <c r="N63">
+        <v>2019</v>
+      </c>
+      <c r="O63">
+        <v>2020</v>
+      </c>
+      <c r="P63">
+        <v>2021</v>
+      </c>
+      <c r="Q63">
+        <v>2022</v>
+      </c>
+      <c r="R63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K64" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" s="5">
+        <v>72486</v>
+      </c>
+      <c r="N64" s="5">
+        <v>73336</v>
+      </c>
+      <c r="O64" s="5">
+        <v>73378</v>
+      </c>
+      <c r="P64" s="5">
+        <v>74473</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>75171</v>
+      </c>
+      <c r="R64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K65" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65">
+        <v>137.434</v>
+      </c>
+      <c r="N65" s="5">
+        <v>139136</v>
+      </c>
+      <c r="O65" s="5">
+        <v>138415</v>
+      </c>
+      <c r="P65" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>137467</v>
+      </c>
+      <c r="R65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" s="5">
+        <v>45720</v>
+      </c>
+      <c r="N66" s="5">
+        <v>47536</v>
+      </c>
+      <c r="O66" s="5">
+        <v>48621</v>
+      </c>
+      <c r="P66">
+        <v>51072</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>52581</v>
+      </c>
+      <c r="R66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K67" t="s">
+        <v>31</v>
+      </c>
+      <c r="M67" s="5">
+        <v>12509</v>
+      </c>
+      <c r="N67" s="5">
+        <v>13016</v>
+      </c>
+      <c r="O67" s="5">
+        <v>13329</v>
+      </c>
+      <c r="P67" s="5">
+        <v>13710</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>13825</v>
+      </c>
+      <c r="R67">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="68" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K68" t="s">
+        <v>75</v>
+      </c>
+      <c r="M68">
+        <v>187.483</v>
+      </c>
+      <c r="N68" s="5">
+        <v>186881</v>
+      </c>
+      <c r="O68" s="5">
+        <v>185602</v>
+      </c>
+      <c r="P68" s="5">
+        <v>186905</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>187035</v>
+      </c>
+      <c r="R68">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K69" t="s">
+        <v>33</v>
+      </c>
+      <c r="M69" s="5">
+        <v>42751</v>
+      </c>
+      <c r="N69" s="5">
+        <v>42586</v>
+      </c>
+      <c r="O69" s="5">
+        <v>42266</v>
+      </c>
+      <c r="P69" s="5">
+        <v>43227</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>43483</v>
+      </c>
+      <c r="R69">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="70" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K70" t="s">
+        <v>34</v>
+      </c>
+      <c r="M70" s="5">
+        <v>37911</v>
+      </c>
+      <c r="N70" s="5">
+        <v>39848</v>
+      </c>
+      <c r="O70" s="5">
+        <v>40106</v>
+      </c>
+      <c r="P70" s="5">
+        <v>41014</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>76</v>
+      </c>
+      <c r="R70">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="71" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K71" t="s">
+        <v>35</v>
+      </c>
+      <c r="M71" s="5">
+        <v>96169</v>
+      </c>
+      <c r="N71" s="5">
+        <v>95141</v>
+      </c>
+      <c r="O71" s="5">
+        <v>94691</v>
+      </c>
+      <c r="P71" s="5">
+        <v>94771</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>92633</v>
+      </c>
+      <c r="R71">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K72" t="s">
+        <v>36</v>
+      </c>
+      <c r="M72" s="5">
+        <v>603694</v>
+      </c>
+      <c r="N72" s="5">
+        <v>609822</v>
+      </c>
+      <c r="O72" s="5">
+        <v>607789</v>
+      </c>
+      <c r="P72" s="5">
+        <v>616886</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>620593</v>
+      </c>
+      <c r="R72">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K73" t="s">
+        <v>37</v>
+      </c>
+      <c r="M73" s="5">
+        <v>946541</v>
+      </c>
+      <c r="N73" s="5">
+        <v>951481</v>
+      </c>
+      <c r="O73" s="5">
+        <v>952285</v>
+      </c>
+      <c r="P73" s="5">
+        <v>964696</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>990403</v>
+      </c>
+      <c r="R73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K74" t="s">
+        <v>38</v>
+      </c>
+      <c r="M74" s="5">
+        <v>229776</v>
+      </c>
+      <c r="N74" s="5">
+        <v>226913</v>
+      </c>
+      <c r="O74" s="5">
+        <v>225216</v>
+      </c>
+      <c r="P74" s="5">
+        <v>225571</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>224719</v>
+      </c>
+      <c r="R74">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="75" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K75" t="s">
+        <v>41</v>
+      </c>
+      <c r="M75" s="5">
+        <v>94966</v>
+      </c>
+      <c r="N75" s="5">
+        <v>96109</v>
+      </c>
+      <c r="O75" s="5">
+        <v>94306</v>
+      </c>
+      <c r="P75" s="5">
+        <v>95964</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>96272</v>
+      </c>
+      <c r="R75">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="76" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K76" t="s">
+        <v>43</v>
+      </c>
+      <c r="M76" s="5">
+        <v>47259</v>
+      </c>
+      <c r="N76" s="5">
+        <v>48311</v>
+      </c>
+      <c r="O76" s="5">
+        <v>47273</v>
+      </c>
+      <c r="P76" s="5">
+        <v>48158</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>48875</v>
+      </c>
+      <c r="R76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K77" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" s="5">
+        <v>941994</v>
+      </c>
+      <c r="N77" s="5">
+        <v>946393</v>
+      </c>
+      <c r="O77" s="5">
+        <v>949967</v>
+      </c>
+      <c r="P77" s="5">
+        <v>960284</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>969488</v>
+      </c>
+    </row>
+    <row r="78" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K78" t="s">
+        <v>47</v>
+      </c>
+      <c r="M78" s="5">
+        <v>33481</v>
+      </c>
+      <c r="N78" s="5">
+        <v>33739</v>
+      </c>
+      <c r="O78" s="5">
+        <v>33116</v>
+      </c>
+      <c r="P78" s="5">
+        <v>33144</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>33367</v>
+      </c>
+      <c r="R78">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="79" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K79" t="s">
+        <v>48</v>
+      </c>
+      <c r="M79" s="5">
+        <v>65996</v>
+      </c>
+      <c r="N79" s="5">
+        <v>67111</v>
+      </c>
+      <c r="O79" s="5">
+        <v>69780</v>
+      </c>
+      <c r="P79" s="5">
+        <v>73019</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>80424</v>
+      </c>
+    </row>
+    <row r="80" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K80" t="s">
+        <v>49</v>
+      </c>
+      <c r="M80">
+        <v>12055</v>
+      </c>
+      <c r="N80" s="5">
+        <v>12300</v>
+      </c>
+      <c r="O80" s="5">
+        <v>13784</v>
+      </c>
+      <c r="P80" s="5">
+        <v>13966</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>14266</v>
+      </c>
+      <c r="R80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K81" t="s">
+        <v>51</v>
+      </c>
+      <c r="M81">
+        <v>158.41</v>
+      </c>
+      <c r="N81" s="5">
+        <v>160608</v>
+      </c>
+      <c r="O81" s="5">
+        <v>157638</v>
+      </c>
+      <c r="P81" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>161829</v>
+      </c>
+      <c r="R81">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K82" t="s">
+        <v>52</v>
+      </c>
+      <c r="M82" s="5">
+        <v>1108975</v>
+      </c>
+      <c r="N82" t="s">
+        <v>80</v>
+      </c>
+      <c r="O82" s="5">
+        <v>1184677</v>
+      </c>
+      <c r="P82" s="5">
+        <v>1234074</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>1276594</v>
+      </c>
+      <c r="R82">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K83" t="s">
+        <v>53</v>
+      </c>
+      <c r="M83" s="5">
+        <v>130000</v>
+      </c>
+      <c r="N83" s="5">
+        <v>132500</v>
+      </c>
+      <c r="O83" s="5">
+        <v>134000</v>
+      </c>
+      <c r="P83" s="5">
+        <v>135000</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>135800</v>
+      </c>
+      <c r="R83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K84" t="s">
+        <v>54</v>
+      </c>
+      <c r="M84">
+        <v>288309</v>
+      </c>
+      <c r="N84" s="5">
+        <v>296489</v>
+      </c>
+      <c r="O84" s="5">
+        <v>346911</v>
+      </c>
+      <c r="P84" s="5">
+        <v>348517</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>366693</v>
+      </c>
+      <c r="R84">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K85" t="s">
+        <v>55</v>
+      </c>
+      <c r="M85" s="5">
+        <v>85241</v>
+      </c>
+      <c r="N85" s="5">
+        <v>81083</v>
+      </c>
+      <c r="O85" s="5">
+        <v>78959</v>
+      </c>
+      <c r="P85" s="5">
+        <v>83341</v>
+      </c>
+      <c r="Q85">
+        <v>82867</v>
+      </c>
+      <c r="R85">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K86" t="s">
+        <v>56</v>
+      </c>
+      <c r="M86" s="5">
+        <v>35864</v>
+      </c>
+      <c r="N86" s="5">
+        <v>37285</v>
+      </c>
+      <c r="O86" s="5">
+        <v>37674</v>
+      </c>
+      <c r="P86" s="5">
+        <v>37951</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>38463</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K87" t="s">
+        <v>57</v>
+      </c>
+      <c r="M87" s="5">
+        <v>590674</v>
+      </c>
+      <c r="N87" s="5">
+        <v>607020</v>
+      </c>
+      <c r="O87" s="5">
+        <v>566362</v>
+      </c>
+      <c r="P87" s="5">
+        <v>571867</v>
+      </c>
+      <c r="Q87" s="5">
+        <v>581631</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K88" t="s">
+        <v>58</v>
+      </c>
+      <c r="M88" s="5">
+        <v>83977</v>
+      </c>
+      <c r="N88" s="5">
+        <v>84153</v>
+      </c>
+      <c r="O88" s="5">
+        <v>84333</v>
+      </c>
+      <c r="P88" s="5">
+        <v>85554</v>
+      </c>
+      <c r="Q88">
+        <v>86.06</v>
+      </c>
+      <c r="R88">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K89" t="s">
+        <v>59</v>
+      </c>
+      <c r="M89" s="5">
+        <v>6089675</v>
+      </c>
+      <c r="N89" s="5">
+        <v>6179290</v>
+      </c>
+      <c r="O89" s="5">
+        <v>6220478</v>
+      </c>
+      <c r="P89" s="5">
+        <v>6328424</v>
+      </c>
+      <c r="Q89" s="5">
+        <v>6451695</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="M90" s="11">
+        <v>5486045</v>
+      </c>
+      <c r="N90" s="11">
+        <v>5633190</v>
+      </c>
+      <c r="O90" s="11">
+        <v>5649274</v>
+      </c>
+      <c r="P90" s="11">
+        <v>5757605</v>
+      </c>
+      <c r="Q90" s="11">
+        <f>P90*Q89/P89</f>
+        <v>5869757.0501715755</v>
+      </c>
+      <c r="T90" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+      <c r="M92">
+        <v>2018</v>
+      </c>
+      <c r="N92">
+        <v>2019</v>
+      </c>
+      <c r="O92">
+        <v>2020</v>
+      </c>
+      <c r="P92">
+        <v>2021</v>
+      </c>
+      <c r="Q92">
+        <v>2022</v>
+      </c>
+      <c r="R92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K93" t="s">
+        <v>28</v>
+      </c>
+      <c r="M93" s="5">
+        <v>10037</v>
+      </c>
+      <c r="N93" s="5">
+        <v>10148</v>
+      </c>
+      <c r="O93" s="5">
+        <v>10064</v>
+      </c>
+      <c r="P93" s="5">
+        <v>10136</v>
+      </c>
+      <c r="Q93" s="5">
+        <v>10373</v>
+      </c>
+      <c r="R93">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K94" t="s">
+        <v>29</v>
+      </c>
+      <c r="M94" s="5">
+        <v>16147</v>
+      </c>
+      <c r="N94" s="5">
+        <v>16390</v>
+      </c>
+      <c r="O94" s="5">
+        <v>16451</v>
+      </c>
+      <c r="P94" s="5">
+        <v>16606</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>16383</v>
+      </c>
+      <c r="R94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K95" t="s">
+        <v>30</v>
+      </c>
+      <c r="M95" s="5">
+        <v>5887</v>
+      </c>
+      <c r="N95" s="5">
+        <v>6110</v>
+      </c>
+      <c r="O95" s="5">
+        <v>4827</v>
+      </c>
+      <c r="P95" s="5">
+        <v>5136</v>
+      </c>
+      <c r="Q95" s="5">
+        <v>5703</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="R96">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="97" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K97" t="s">
+        <v>31</v>
+      </c>
+      <c r="M97" s="5">
+        <v>3084</v>
+      </c>
+      <c r="N97" s="5">
+        <v>3151</v>
+      </c>
+      <c r="O97" s="5">
+        <v>2655</v>
+      </c>
+      <c r="P97" s="5">
+        <v>2774</v>
+      </c>
+      <c r="Q97" s="5">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="98" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K98" t="s">
+        <v>32</v>
+      </c>
+      <c r="M98" s="5">
+        <v>21443</v>
+      </c>
+      <c r="N98" s="5">
+        <v>21705</v>
+      </c>
+      <c r="O98">
+        <v>19.661000000000001</v>
+      </c>
+      <c r="P98" s="5">
+        <v>20489</v>
+      </c>
+      <c r="Q98" s="5">
+        <v>21228</v>
+      </c>
+      <c r="R98">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="99" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K99" t="s">
+        <v>33</v>
+      </c>
+      <c r="M99" s="5">
+        <v>8981</v>
+      </c>
+      <c r="N99" s="5">
+        <v>8940</v>
+      </c>
+      <c r="O99" s="5">
+        <v>8546</v>
+      </c>
+      <c r="P99" s="5">
+        <v>8684</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>8624</v>
+      </c>
+      <c r="R99">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="100" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K100" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100">
+        <v>4973</v>
+      </c>
+      <c r="N100" s="5">
+        <v>5221</v>
+      </c>
+      <c r="O100" s="5">
+        <v>5235</v>
+      </c>
+      <c r="P100" s="5">
+        <v>5327</v>
+      </c>
+      <c r="Q100" s="5">
+        <v>5365</v>
+      </c>
+      <c r="R100">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="101" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K101" t="s">
+        <v>35</v>
+      </c>
+      <c r="M101" s="5">
+        <v>12623</v>
+      </c>
+      <c r="N101" s="5">
+        <v>12481</v>
+      </c>
+      <c r="O101" s="5">
+        <v>12577</v>
+      </c>
+      <c r="P101" s="5">
+        <v>9955</v>
+      </c>
+      <c r="Q101" s="5">
+        <v>11115</v>
+      </c>
+    </row>
+    <row r="102" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K102" t="s">
+        <v>36</v>
+      </c>
+      <c r="M102" s="5">
+        <v>90807</v>
+      </c>
+      <c r="O102" s="5">
+        <v>92908</v>
+      </c>
+      <c r="P102" s="5">
+        <v>94519</v>
+      </c>
+      <c r="Q102" s="5">
+        <v>94074</v>
+      </c>
+      <c r="R102">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K103" t="s">
+        <v>37</v>
+      </c>
+      <c r="M103" s="5">
+        <v>80519</v>
+      </c>
+      <c r="N103">
+        <v>81364</v>
+      </c>
+      <c r="O103" s="5">
+        <v>75548</v>
+      </c>
+      <c r="P103" s="5">
+        <v>80225</v>
+      </c>
+      <c r="Q103" s="5">
+        <v>82932</v>
+      </c>
+      <c r="R103">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="104" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K104" t="s">
+        <v>38</v>
+      </c>
+      <c r="M104" s="5">
+        <v>27970</v>
+      </c>
+      <c r="N104" s="5">
+        <v>27988</v>
+      </c>
+      <c r="O104" s="5">
+        <v>28196</v>
+      </c>
+      <c r="P104" s="5">
+        <v>28034</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>27662</v>
+      </c>
+    </row>
+    <row r="105" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K105" t="s">
+        <v>41</v>
+      </c>
+      <c r="M105" s="5">
+        <v>19091</v>
+      </c>
+      <c r="N105" s="5">
+        <v>19450</v>
+      </c>
+      <c r="O105" s="5">
+        <v>16958</v>
+      </c>
+      <c r="P105" s="5">
+        <v>17723</v>
+      </c>
+      <c r="Q105" s="5">
+        <v>17628</v>
+      </c>
+      <c r="R105">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K106" t="s">
+        <v>43</v>
+      </c>
+      <c r="M106" s="5">
+        <v>10371</v>
+      </c>
+      <c r="N106" s="5">
+        <v>10944</v>
+      </c>
+      <c r="O106" s="5">
+        <v>6404</v>
+      </c>
+      <c r="P106" s="5">
+        <v>6758</v>
+      </c>
+      <c r="Q106" s="5">
+        <v>6727</v>
+      </c>
+      <c r="R106">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K107" t="s">
+        <v>45</v>
+      </c>
+      <c r="M107" s="5">
+        <v>100042</v>
+      </c>
+      <c r="O107" s="5">
+        <v>99883</v>
+      </c>
+      <c r="P107" s="5">
+        <v>100199</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>100014</v>
+      </c>
+      <c r="R107">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="108" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K108" t="s">
+        <v>47</v>
+      </c>
+      <c r="N108">
+        <v>3979</v>
+      </c>
+      <c r="O108">
+        <v>3.508</v>
+      </c>
+      <c r="P108" s="5">
+        <v>3742</v>
+      </c>
+      <c r="Q108">
+        <v>2331</v>
+      </c>
+      <c r="R108">
+        <v>-37.700000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K109" t="s">
+        <v>48</v>
+      </c>
+      <c r="M109" s="5">
+        <v>7517</v>
+      </c>
+      <c r="N109" s="5">
+        <v>7646</v>
+      </c>
+      <c r="O109" s="5">
+        <v>8145</v>
+      </c>
+      <c r="P109" s="5">
+        <v>8069</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>7989</v>
+      </c>
+    </row>
+    <row r="110" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K110" t="s">
+        <v>49</v>
+      </c>
+      <c r="M110" s="5">
+        <v>1963</v>
+      </c>
+      <c r="N110" s="5">
+        <v>1975</v>
+      </c>
+      <c r="O110" t="s">
+        <v>83</v>
+      </c>
+      <c r="P110" s="5">
+        <v>2217</v>
+      </c>
+      <c r="Q110">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="111" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K111" t="s">
+        <v>51</v>
+      </c>
+      <c r="M111" s="5">
+        <v>10043</v>
+      </c>
+      <c r="N111" s="5">
+        <v>10032</v>
+      </c>
+      <c r="O111" s="5">
+        <v>9774</v>
+      </c>
+      <c r="P111" s="5">
+        <v>9316</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>9023</v>
+      </c>
+      <c r="R111">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="112" spans="11:18" x14ac:dyDescent="0.35">
+      <c r="K112" t="s">
+        <v>52</v>
+      </c>
+      <c r="M112" s="5">
+        <v>119471</v>
+      </c>
+      <c r="N112" s="5">
+        <v>122604</v>
+      </c>
+      <c r="O112" s="5">
+        <v>124526</v>
+      </c>
+      <c r="P112" s="5">
+        <v>126547</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>128677</v>
+      </c>
+    </row>
+    <row r="113" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K113" t="s">
+        <v>53</v>
+      </c>
+      <c r="M113" s="5">
+        <v>16200</v>
+      </c>
+      <c r="N113" s="5">
+        <v>16800</v>
+      </c>
+      <c r="O113" s="5">
+        <v>17000</v>
+      </c>
+      <c r="P113" s="5">
+        <v>17300</v>
+      </c>
+      <c r="Q113" s="5">
+        <v>18200</v>
+      </c>
+      <c r="R113">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="114" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K114" t="s">
+        <v>54</v>
+      </c>
+      <c r="M114" s="5">
+        <v>50731</v>
+      </c>
+      <c r="N114" s="5">
+        <v>52729</v>
+      </c>
+      <c r="O114">
+        <v>54170</v>
+      </c>
+      <c r="P114" s="5">
+        <v>54351</v>
+      </c>
+      <c r="Q114" s="5">
+        <v>54713</v>
+      </c>
+      <c r="R114">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="115" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K115" t="s">
+        <v>55</v>
+      </c>
+      <c r="M115" s="5">
+        <v>9078</v>
+      </c>
+      <c r="N115" s="5">
+        <v>8929</v>
+      </c>
+      <c r="O115" s="5">
+        <v>7855</v>
+      </c>
+      <c r="P115" s="5">
+        <v>8282</v>
+      </c>
+      <c r="Q115" s="5">
+        <v>8702</v>
+      </c>
+    </row>
+    <row r="116" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K116" t="s">
+        <v>56</v>
+      </c>
+      <c r="M116" s="5">
+        <v>2852</v>
+      </c>
+      <c r="N116" s="5">
+        <v>2905</v>
+      </c>
+      <c r="O116" s="5">
+        <v>2382</v>
+      </c>
+      <c r="P116" s="5">
+        <v>2502</v>
+      </c>
+      <c r="Q116" s="5">
+        <v>2122</v>
+      </c>
+      <c r="R116">
+        <v>-15.2</v>
+      </c>
+    </row>
+    <row r="117" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K117" t="s">
+        <v>57</v>
+      </c>
+      <c r="M117" s="5">
+        <v>60338</v>
+      </c>
+      <c r="N117" s="5">
+        <v>61537</v>
+      </c>
+      <c r="O117" s="5">
+        <v>60910</v>
+      </c>
+      <c r="P117" s="5">
+        <v>60998</v>
+      </c>
+      <c r="Q117" s="5">
+        <v>61509</v>
+      </c>
+      <c r="R117">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="118" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K118" t="s">
+        <v>58</v>
+      </c>
+      <c r="M118">
+        <v>14.378</v>
+      </c>
+      <c r="N118">
+        <v>14.914</v>
+      </c>
+      <c r="O118">
+        <v>13489</v>
+      </c>
+      <c r="P118">
+        <v>13594</v>
+      </c>
+      <c r="Q118">
+        <v>14.239000000000001</v>
+      </c>
+      <c r="R118">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="119" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="K119" t="s">
+        <v>59</v>
+      </c>
+      <c r="M119" s="5">
+        <v>708581</v>
+      </c>
+      <c r="N119" s="5">
+        <v>720421</v>
+      </c>
+      <c r="O119" s="5">
+        <v>703803</v>
+      </c>
+      <c r="P119" s="5">
+        <v>713483</v>
+      </c>
+      <c r="Q119" s="5">
+        <v>720783</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="M120" s="11">
+        <v>657287</v>
+      </c>
+      <c r="N120" s="11">
+        <v>671340</v>
+      </c>
+      <c r="O120" s="11">
+        <v>655981</v>
+      </c>
+      <c r="P120" s="11">
+        <v>669375</v>
+      </c>
+      <c r="Q120" s="11">
+        <f>P120*Q119/P119</f>
+        <v>676223.70907926327</v>
+      </c>
+      <c r="T120" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2EA77-52D5-4C8F-A27F-EB40305A89E1}">
+  <dimension ref="B3:K12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C4" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2020</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2022</v>
+      </c>
+      <c r="H4">
+        <v>2023</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <f>15159336-2367147</f>
+        <v>12792189</v>
+      </c>
+      <c r="D5">
+        <f>13028948</f>
+        <v>13028948</v>
+      </c>
+      <c r="E5">
+        <v>9939418</v>
+      </c>
+      <c r="F5">
+        <v>9700095</v>
+      </c>
+      <c r="G5">
+        <v>9263509</v>
+      </c>
+      <c r="H5">
+        <v>10547716</v>
+      </c>
+      <c r="I5" s="13">
+        <f>H5*1.039</f>
+        <v>10959076.923999999</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE(G5:H5)</f>
+        <v>9905612.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2022</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2023</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <f>2058574-357325</f>
+        <v>1701249</v>
+      </c>
+      <c r="D8">
+        <v>1747471</v>
+      </c>
+      <c r="E8">
+        <v>1439375</v>
+      </c>
+      <c r="F8">
+        <v>1561961</v>
+      </c>
+      <c r="G8">
+        <v>1280235</v>
+      </c>
+      <c r="H8">
+        <v>1467001</v>
+      </c>
+      <c r="I8" s="13">
+        <f>H8*1.15</f>
+        <v>1687051.15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <f>384850-53467</f>
+        <v>331383</v>
+      </c>
+      <c r="D9">
+        <v>333072</v>
+      </c>
+      <c r="E9">
+        <v>247616</v>
+      </c>
+      <c r="F9">
+        <f>289762</f>
+        <v>289762</v>
+      </c>
+      <c r="G9">
+        <f>298407</f>
+        <v>298407</v>
+      </c>
+      <c r="H9">
+        <f>346986</f>
+        <v>346986</v>
+      </c>
+      <c r="I9" s="13">
+        <f>H9*1.03</f>
+        <v>357395.58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2021</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2022</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <f>SUM(594,1201,1491,4,35221)</f>
+        <v>38511</v>
+      </c>
+      <c r="D12">
+        <f>SUM(1448,1957,2579,11,28065)</f>
+        <v>34060</v>
+      </c>
+      <c r="E12">
+        <f>SUM(1715,2661,3105,6,20480)</f>
+        <v>27967</v>
+      </c>
+      <c r="F12">
+        <f>SUM(3083,3006,3021,1,20072)</f>
+        <v>29183</v>
+      </c>
+      <c r="G12">
+        <v>27308</v>
+      </c>
+      <c r="H12">
+        <v>32593</v>
+      </c>
+      <c r="I12" s="13">
+        <f>H12*1.286</f>
+        <v>41914.597999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://www.acea.auto/files/20230118_PCPR_2212_FINAL.pdf" xr:uid="{7ECAF9BB-B20E-4DE7-BEE6-34FA796E39B2}"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://www.acea.auto/files/Press_release_car_registrations_full_year_2023.pdf" xr:uid="{FE566B88-5947-4689-BDF7-2FEDD1BB2BD0}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.acea.auto/files/20220118_PRPC_2112_FINAL.pdf" xr:uid="{69C3DD2C-B62B-4F6B-AC90-EE79B49CC79C}"/>
+    <hyperlink ref="C4" r:id="rId4" display="https://www.acea.auto/files/20200116_PRPC_1912_FINAL.pdf" xr:uid="{7B300AE0-CF08-41D6-B7B8-235C39FF7A04}"/>
+    <hyperlink ref="D4" r:id="rId5" display="https://www.acea.auto/files/2021119_PRPC_2012_FINAL.pdf" xr:uid="{2B588F25-7765-4C5D-BDF7-C59961F91A4E}"/>
+    <hyperlink ref="G7:H7" r:id="rId6" display="https://www.acea.auto/files/Press_release_car_registrations_full_year_2023.pdf" xr:uid="{6D5DECC0-A117-4567-9431-7AEF77F52A32}"/>
+    <hyperlink ref="F7" r:id="rId7" display="https://www.acea.auto/files/20230125_PRCV_2212_FINAL.pdf" xr:uid="{EF2B36A2-4228-4247-81C6-1C9D099F8971}"/>
+    <hyperlink ref="E7" r:id="rId8" display="https://www.acea.auto/files/20220126_PRCV_2112_FINAL.pdf" xr:uid="{473B987F-EBBE-4423-90A2-73EFA93AA706}"/>
+    <hyperlink ref="D7" r:id="rId9" display="https://www.acea.auto/files/20210126_PRCV_2012_FINAL.pdf" xr:uid="{24AF7A94-523F-4E2D-AA23-52DBFC361D05}"/>
+    <hyperlink ref="C7" r:id="rId10" display="https://www.acea.auto/files/20200123_PRCV_1912_FINAL.pdf" xr:uid="{127227ED-405C-42F7-B89A-16E7DF1A2689}"/>
+    <hyperlink ref="H11" r:id="rId11" display="https://www.acea.auto/files/Press_release_commercial_vehicle_registrations_2023.pdf" xr:uid="{46B557FB-5725-4E63-9F97-3837EC2E667F}"/>
+    <hyperlink ref="G11" r:id="rId12" display="https://www.acea.auto/files/Press_release_commercial_vehicle_registrations_2023.pdf" xr:uid="{B4497C61-41C3-4D72-8767-063933CFA99B}"/>
+    <hyperlink ref="F11" r:id="rId13" display="https://www.acea.auto/files/ACEA_buses_by_fuel_type_full-year-2022.pdf" xr:uid="{A90CBE6B-28E1-4257-9D25-165CC99D45C5}"/>
+    <hyperlink ref="E11" r:id="rId14" display="https://www.acea.auto/files/Buses-by-fuel-type-full-year-2021.pdf" xr:uid="{FAAAD4F6-A61A-45BB-A02C-F0D70018057A}"/>
+    <hyperlink ref="D11" r:id="rId15" display="https://www.acea.auto/files/ACEA_buses_by_fuel_type_full-year_2020.pdf" xr:uid="{D47C207F-C433-46C8-BA5F-916103C74EA7}"/>
+    <hyperlink ref="C11" r:id="rId16" display="https://www.acea.auto/files/ACEA_buses_by_fuel_type_full-year_2019.pdf" xr:uid="{8EF9CE3B-FBC1-4815-B9A2-E0C84C8C73A0}"/>
+    <hyperlink ref="I4" r:id="rId17" xr:uid="{D948A403-B1EF-4144-B477-F70925E2DDBE}"/>
+    <hyperlink ref="I7" r:id="rId18" xr:uid="{F94FD9AA-C177-4230-8C7D-7ACE3C8923B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EDFF3C-4780-4740-AFE4-746A23223F49}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <f>'ACEA Sales'!C5/'ACEA Stock'!L29</f>
+        <v>5.3513070729990078E-2</v>
+      </c>
+      <c r="C4">
+        <f>'ACEA Sales'!D5/'ACEA Stock'!M29</f>
+        <v>5.3489407911602317E-2</v>
+      </c>
+      <c r="D4">
+        <f>'ACEA Sales'!E5/'ACEA Stock'!N29</f>
+        <v>4.0324092592718512E-2</v>
+      </c>
+      <c r="E4">
+        <f>'ACEA Sales'!F5/'ACEA Stock'!O29</f>
+        <v>3.8857139556321266E-2</v>
+      </c>
+      <c r="F4">
+        <f>'ACEA Sales'!G5/'ACEA Stock'!P29</f>
+        <v>3.6725304130200163E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <f>'ACEA Sales'!C12/'ACEA Stock'!M120</f>
+        <v>5.8590843877940689E-2</v>
+      </c>
+      <c r="C5">
+        <f>'ACEA Sales'!D12/'ACEA Stock'!N120</f>
+        <v>5.0734352191140107E-2</v>
+      </c>
+      <c r="D5">
+        <f>'ACEA Sales'!E12/'ACEA Stock'!O120</f>
+        <v>4.2633856773290693E-2</v>
+      </c>
+      <c r="E5">
+        <f>'ACEA Sales'!F12/'ACEA Stock'!P120</f>
+        <v>4.359738562091503E-2</v>
+      </c>
+      <c r="F5">
+        <f>'ACEA Sales'!G12/'ACEA Stock'!Q120</f>
+        <v>4.0383085705738106E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <f>'ACEA Sales'!C8/'ACEA Stock'!L60</f>
+        <v>6.5524789260406585E-2</v>
+      </c>
+      <c r="C6">
+        <f>'ACEA Sales'!D8/'ACEA Stock'!M60</f>
+        <v>6.5803513585610304E-2</v>
+      </c>
+      <c r="D6">
+        <f>'ACEA Sales'!E8/'ACEA Stock'!N60</f>
+        <v>5.3386125960732361E-2</v>
+      </c>
+      <c r="E6">
+        <f>'ACEA Sales'!F8/'ACEA Stock'!O60</f>
+        <v>5.6554760876554061E-2</v>
+      </c>
+      <c r="F6">
+        <f>'ACEA Sales'!G8/'ACEA Stock'!P60</f>
+        <v>4.5776587042183174E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <f>'ACEA Sales'!C9/'ACEA Stock'!M90</f>
+        <v>6.0404717788497909E-2</v>
+      </c>
+      <c r="C7">
+        <f>'ACEA Sales'!D9/'ACEA Stock'!N90</f>
+        <v>5.9126711508044286E-2</v>
+      </c>
+      <c r="D7">
+        <f>'ACEA Sales'!E9/'ACEA Stock'!O90</f>
+        <v>4.3831472858282323E-2</v>
+      </c>
+      <c r="E7">
+        <f>'ACEA Sales'!F9/'ACEA Stock'!P90</f>
+        <v>5.0326828603212623E-2</v>
+      </c>
+      <c r="F7">
+        <f>'ACEA Sales'!G9/'ACEA Stock'!$Q90</f>
+        <v>5.0838049590362082E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -549,217 +5063,6 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="8" width="14.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <f>1/17</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:H2" si="0">1/17</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>0.09</v>
-      </c>
-      <c r="C3">
-        <v>0.09</v>
-      </c>
-      <c r="D3">
-        <v>0.09</v>
-      </c>
-      <c r="E3">
-        <v>0.09</v>
-      </c>
-      <c r="F3">
-        <v>0.09</v>
-      </c>
-      <c r="G3">
-        <v>0.09</v>
-      </c>
-      <c r="H3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="C4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="E4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="F4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="G4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="H4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="C6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="F6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="G6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="H6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="C7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="D7">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="F7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="G7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="H7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
@@ -800,51 +5103,276 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="C2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="D2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="E2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="F2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="G2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="H2">
-        <v>7.1999999999999995E-2</v>
+        <f>AVERAGE(calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G3" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(calcs!$B6:$F6)</f>
+        <v>5.7409155345097294E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
       <c r="B3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="C3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="D3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="E3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="F3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="G3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="H3">
-        <v>5.7500000000000002E-2</v>
+        <f>AVERAGE(calcs!$B7:$B7)</f>
+        <v>6.0404717788497909E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
